--- a/Metadata/Somali_Accent_DB_Metadata.xlsx
+++ b/Metadata/Somali_Accent_DB_Metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28605"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\MI2PEPF000005B4\EXCELCNV\d974c8b0-d1aa-4bef-a02c-0ae81a73f1f0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{326807C1-2E74-4941-81E5-12C935840FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA17A99-8F6F-4C3F-8911-0B3AF53D94B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{1670D249-4C3F-47C1-8C14-12B4933AC961}"/>
   </bookViews>
@@ -35,8 +35,70 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="5">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="36"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="48"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="5">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="347">
   <si>
     <t>Speaker_ID</t>
   </si>
@@ -65,6 +127,9 @@
     <t>Background_Info</t>
   </si>
   <si>
+    <t>Background_noise</t>
+  </si>
+  <si>
     <t>Date_Recorded</t>
   </si>
   <si>
@@ -80,41 +145,1007 @@
     <t>18-25</t>
   </si>
   <si>
-    <t>Mogadishu</t>
-  </si>
-  <si>
     <t>Sentence-1</t>
   </si>
   <si>
-    <t>Clear</t>
+    <t>good</t>
   </si>
   <si>
     <t>Bilingual (English/Somali)</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>SOM002</t>
   </si>
   <si>
     <t>SOM002_sentence1.wav</t>
   </si>
   <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t>SOM003</t>
+  </si>
+  <si>
+    <t>SOM003_sentence1.wav</t>
+  </si>
+  <si>
     <t>Female</t>
   </si>
   <si>
-    <t>26-40</t>
-  </si>
-  <si>
-    <t>Hargeisa</t>
-  </si>
-  <si>
-    <t>Noisy</t>
+    <t>SOM004</t>
+  </si>
+  <si>
+    <t>SOM004_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM005</t>
+  </si>
+  <si>
+    <t>SOM005_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM006</t>
+  </si>
+  <si>
+    <t>SOM006_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM007</t>
+  </si>
+  <si>
+    <t>SOM007_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM008</t>
+  </si>
+  <si>
+    <t>SOM008_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM009</t>
+  </si>
+  <si>
+    <t>SOM009_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM010</t>
+  </si>
+  <si>
+    <t>SOM010_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM011</t>
+  </si>
+  <si>
+    <t>SOM011_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM012</t>
+  </si>
+  <si>
+    <t>SOM012_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM013</t>
+  </si>
+  <si>
+    <t>SOM013_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM014</t>
+  </si>
+  <si>
+    <t>SOM014_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM015</t>
+  </si>
+  <si>
+    <t>SOM015_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM016</t>
+  </si>
+  <si>
+    <t>SOM016_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM017</t>
+  </si>
+  <si>
+    <t>SOM017_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM018</t>
+  </si>
+  <si>
+    <t>SOM018_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM019</t>
+  </si>
+  <si>
+    <t>SOM019_sentence1.wav</t>
+  </si>
+  <si>
+    <t>25-30</t>
+  </si>
+  <si>
+    <t>SOM020</t>
+  </si>
+  <si>
+    <t>SOM020_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM021</t>
+  </si>
+  <si>
+    <t>SOM021_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM022</t>
+  </si>
+  <si>
+    <t>SOM022_sentence1.wav</t>
+  </si>
+  <si>
+    <t>trilingual(English/Somali/Arabic)</t>
+  </si>
+  <si>
+    <t>SOM023</t>
+  </si>
+  <si>
+    <t>SOM023_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM024</t>
+  </si>
+  <si>
+    <t>SOM024_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM025</t>
+  </si>
+  <si>
+    <t>SOM025_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM026</t>
+  </si>
+  <si>
+    <t>SOM026_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM027</t>
+  </si>
+  <si>
+    <t>SOM027_sentence1.wav</t>
+  </si>
+  <si>
+    <t>25-35</t>
+  </si>
+  <si>
+    <t>trilingual(English/Somali/Turkish)</t>
+  </si>
+  <si>
+    <t>SOM028</t>
+  </si>
+  <si>
+    <t>SOM028_sentence1.wav</t>
+  </si>
+  <si>
+    <t>trilingual(English/Somali/swahili)</t>
+  </si>
+  <si>
+    <t>SOM029</t>
+  </si>
+  <si>
+    <t>SOM029_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM030</t>
+  </si>
+  <si>
+    <t>SOM030_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM031</t>
+  </si>
+  <si>
+    <t>SOM031_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM032</t>
+  </si>
+  <si>
+    <t>SOM032_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM033</t>
+  </si>
+  <si>
+    <t>SOM033_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM034</t>
+  </si>
+  <si>
+    <t>SOM034_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM035</t>
+  </si>
+  <si>
+    <t>SOM035_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM036</t>
+  </si>
+  <si>
+    <t>SOM036_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM037</t>
+  </si>
+  <si>
+    <t>SOM037_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM038</t>
+  </si>
+  <si>
+    <t>SOM038_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM039</t>
+  </si>
+  <si>
+    <t>SOM039_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM040</t>
+  </si>
+  <si>
+    <t>SOM040_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM041</t>
+  </si>
+  <si>
+    <t>SOM041_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM042</t>
+  </si>
+  <si>
+    <t>SOM042_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM043</t>
+  </si>
+  <si>
+    <t>SOM043_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM044</t>
+  </si>
+  <si>
+    <t>SOM044_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM045</t>
+  </si>
+  <si>
+    <t>SOM045_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM046</t>
+  </si>
+  <si>
+    <t>SOM046_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM047</t>
+  </si>
+  <si>
+    <t>SOM047_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM048</t>
+  </si>
+  <si>
+    <t>SOM048_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM049</t>
+  </si>
+  <si>
+    <t>SOM049_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM050</t>
+  </si>
+  <si>
+    <t>SOM050_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM051</t>
+  </si>
+  <si>
+    <t>SOM051_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM052</t>
+  </si>
+  <si>
+    <t>SOM052_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM053</t>
+  </si>
+  <si>
+    <t>SOM053_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM054</t>
+  </si>
+  <si>
+    <t>SOM054_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM055</t>
+  </si>
+  <si>
+    <t>SOM055_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM056</t>
+  </si>
+  <si>
+    <t>SOM056_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM057</t>
+  </si>
+  <si>
+    <t>SOM057_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM058</t>
+  </si>
+  <si>
+    <t>SOM058_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM059</t>
+  </si>
+  <si>
+    <t>SOM059_sentence1.wav</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>SOM060</t>
+  </si>
+  <si>
+    <t>SOM060_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM061</t>
+  </si>
+  <si>
+    <t>SOM061_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM062</t>
+  </si>
+  <si>
+    <t>SOM062_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM063</t>
+  </si>
+  <si>
+    <t>SOM063_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM064</t>
+  </si>
+  <si>
+    <t>SOM064_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM065</t>
+  </si>
+  <si>
+    <t>SOM065_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM066</t>
+  </si>
+  <si>
+    <t>SOM066_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM067</t>
+  </si>
+  <si>
+    <t>SOM067_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM068</t>
+  </si>
+  <si>
+    <t>SOM068_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM069</t>
+  </si>
+  <si>
+    <t>SOM069_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM070</t>
+  </si>
+  <si>
+    <t>SOM070_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM071</t>
+  </si>
+  <si>
+    <t>SOM071_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM072</t>
+  </si>
+  <si>
+    <t>SOM072_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM073</t>
+  </si>
+  <si>
+    <t>SOM073_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM074</t>
+  </si>
+  <si>
+    <t>SOM074_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM075</t>
+  </si>
+  <si>
+    <t>SOM075_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM076</t>
+  </si>
+  <si>
+    <t>SOM076_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM077</t>
+  </si>
+  <si>
+    <t>SOM077_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM078</t>
+  </si>
+  <si>
+    <t>SOM078_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM079</t>
+  </si>
+  <si>
+    <t>SOM079_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM080</t>
+  </si>
+  <si>
+    <t>SOM080_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM081</t>
+  </si>
+  <si>
+    <t>SOM081_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM082</t>
+  </si>
+  <si>
+    <t>SOM082_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM083</t>
+  </si>
+  <si>
+    <t>SOM083_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM084</t>
+  </si>
+  <si>
+    <t>SOM084_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM085</t>
+  </si>
+  <si>
+    <t>SOM085_sentence1.wav</t>
+  </si>
+  <si>
+    <t>very good</t>
+  </si>
+  <si>
+    <t>SOM086</t>
+  </si>
+  <si>
+    <t>SOM086_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM087</t>
+  </si>
+  <si>
+    <t>SOM087_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM088</t>
+  </si>
+  <si>
+    <t>SOM088_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM089</t>
+  </si>
+  <si>
+    <t>SOM089_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM090</t>
+  </si>
+  <si>
+    <t>SOM090_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM091</t>
+  </si>
+  <si>
+    <t>SOM091_sentence1.wav</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>SOM092</t>
+  </si>
+  <si>
+    <t>SOM092_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM093</t>
+  </si>
+  <si>
+    <t>SOM093_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM094</t>
+  </si>
+  <si>
+    <t>SOM094_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM095</t>
+  </si>
+  <si>
+    <t>SOM095_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM096</t>
+  </si>
+  <si>
+    <t>SOM096_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM097</t>
+  </si>
+  <si>
+    <t>SOM097_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM098</t>
+  </si>
+  <si>
+    <t>SOM098_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM099</t>
+  </si>
+  <si>
+    <t>SOM099_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM100</t>
+  </si>
+  <si>
+    <t>SOM100_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM101</t>
+  </si>
+  <si>
+    <t>SOM101_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM102</t>
+  </si>
+  <si>
+    <t>SOM102_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM103</t>
+  </si>
+  <si>
+    <t>SOM103_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM104</t>
+  </si>
+  <si>
+    <t>SOM104_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM105</t>
+  </si>
+  <si>
+    <t>SOM105_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM106</t>
+  </si>
+  <si>
+    <t>SOM106_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM107</t>
+  </si>
+  <si>
+    <t>SOM107_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM108</t>
+  </si>
+  <si>
+    <t>SOM108_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM109</t>
+  </si>
+  <si>
+    <t>SOM109_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM110</t>
+  </si>
+  <si>
+    <t>SOM110_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM111</t>
+  </si>
+  <si>
+    <t>SOM111_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM112</t>
+  </si>
+  <si>
+    <t>SOM112_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM113</t>
+  </si>
+  <si>
+    <t>SOM113_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM114</t>
+  </si>
+  <si>
+    <t>SOM114_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM115</t>
+  </si>
+  <si>
+    <t>SOM115_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM116</t>
+  </si>
+  <si>
+    <t>SOM116_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM117</t>
+  </si>
+  <si>
+    <t>SOM117_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM118</t>
+  </si>
+  <si>
+    <t>SOM118_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM119</t>
+  </si>
+  <si>
+    <t>SOM119_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM120</t>
+  </si>
+  <si>
+    <t>SOM120_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM121</t>
+  </si>
+  <si>
+    <t>SOM121_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM122</t>
+  </si>
+  <si>
+    <t>SOM122_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM123</t>
+  </si>
+  <si>
+    <t>SOM123_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM124</t>
+  </si>
+  <si>
+    <t>SOM124_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM125</t>
+  </si>
+  <si>
+    <t>SOM125_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM126</t>
+  </si>
+  <si>
+    <t>SOM126_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM127</t>
+  </si>
+  <si>
+    <t>SOM127_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM128</t>
+  </si>
+  <si>
+    <t>SOM128_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM129</t>
+  </si>
+  <si>
+    <t>SOM129_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM130</t>
+  </si>
+  <si>
+    <t>SOM130_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM131</t>
+  </si>
+  <si>
+    <t>SOM131_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM132</t>
+  </si>
+  <si>
+    <t>SOM132_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM133</t>
+  </si>
+  <si>
+    <t>SOM133_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM134</t>
+  </si>
+  <si>
+    <t>SOM134_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM135</t>
+  </si>
+  <si>
+    <t>SOM135_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM136</t>
+  </si>
+  <si>
+    <t>SOM136_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM137</t>
+  </si>
+  <si>
+    <t>SOM137_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM138</t>
+  </si>
+  <si>
+    <t>SOM138_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM139</t>
+  </si>
+  <si>
+    <t>SOM139_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM140</t>
+  </si>
+  <si>
+    <t>SOM140_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM141</t>
+  </si>
+  <si>
+    <t>SOM141_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM142</t>
+  </si>
+  <si>
+    <t>SOM142_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM143</t>
+  </si>
+  <si>
+    <t>SOM143_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM144</t>
+  </si>
+  <si>
+    <t>SOM144_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM145</t>
+  </si>
+  <si>
+    <t>SOM145_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM146</t>
+  </si>
+  <si>
+    <t>SOM146_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM147</t>
+  </si>
+  <si>
+    <t>SOM147_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM148</t>
+  </si>
+  <si>
+    <t>SOM148_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM149</t>
+  </si>
+  <si>
+    <t>SOM149_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM150</t>
+  </si>
+  <si>
+    <t>SOM150_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM151</t>
+  </si>
+  <si>
+    <t>SOM151_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM152</t>
+  </si>
+  <si>
+    <t>SOM152_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM153</t>
+  </si>
+  <si>
+    <t>SOM153_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM154</t>
+  </si>
+  <si>
+    <t>SOM154_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM155</t>
+  </si>
+  <si>
+    <t>SOM155_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM156</t>
+  </si>
+  <si>
+    <t>SOM156_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM157</t>
+  </si>
+  <si>
+    <t>SOM157_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM158</t>
+  </si>
+  <si>
+    <t>SOM158_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM159</t>
+  </si>
+  <si>
+    <t>SOM159_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM160</t>
+  </si>
+  <si>
+    <t>SOM160_sentence1.wav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +1287,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -599,11 +1636,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -661,6 +1706,1118 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity2">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentity2core">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataRetrievedTime">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%EntityDomainIdString">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%InfoToolTipLabelNames">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%InfoToolTipLabelValues">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%InfoToolTipLabelValuesType">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderString">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%ClassificationId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_webimage">
+      <keyFlags>
+        <key name="WebImageIdentifier">
+          <flag name="ShowInCardView" value="0"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdRichValueWebImage.xml><?xml version="1.0" encoding="utf-8"?>
+<webImagesSrd xmlns="http://schemas.microsoft.com/office/spreadsheetml/2020/richdatawebimage" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <webImageSrd>
+    <address r:id="rId1"/>
+    <moreImagesAddress r:id="rId2"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId3"/>
+    <moreImagesAddress r:id="rId4"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId5"/>
+    <moreImagesAddress r:id="rId6"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId7"/>
+    <moreImagesAddress r:id="rId8"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId9"/>
+    <moreImagesAddress r:id="rId10"/>
+  </webImageSrd>
+</webImagesSrd>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
+  <a r="1">
+    <v t="r">6</v>
+  </a>
+  <a r="1">
+    <v t="r">18</v>
+  </a>
+  <a r="1">
+    <v t="r">30</v>
+  </a>
+  <a r="1">
+    <v t="r">42</v>
+  </a>
+  <a r="1">
+    <v t="r">55</v>
+  </a>
+  <a r="1">
+    <v t="s">Greenwich Mean Time</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="62">
+  <rv s="0">
+    <v>536870912</v>
+    <v>Mogadishu</v>
+    <v>6b153fea-d687-ac84-f937-d59d0a5bdaf6</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Banaadir</v>
+    <v>47a94b95-50da-e3cb-c6c9-dd8cba83fba4</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>91</fb>
+    <v>8</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Somalia</v>
+    <v>14f0659c-f28d-2a2c-7272-22ac7398b0ed</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="2">
+    <v>0</v>
+    <v>6</v>
+    <v>0</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Mogadishu</v>
+  </rv>
+  <rv s="1">
+    <fb>2.0391666666666701</fb>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Yusuf Hussein Jimaale (Mayor)</v>
+    <v>04de3d46-470b-27d7-f398-e328ff819205</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>0</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=mogadishu&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>45.341944444444401</fb>
+    <v>9</v>
+  </rv>
+  <rv s="1">
+    <fb>2120000</fb>
+    <v>8</v>
+  </rv>
+  <rv s="5">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>6b153fea-d687-ac84-f937-d59d0a5bdaf6</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>1</v>
+    <v>2</v>
+    <v>Mogadishu</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>7</v>
+    <v>1</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Mogadishu, locally known as Xamar or Hamar, is the capital and most populous city of Somalia. The city has served as an important port connecting traders across the Indian Ocean for millennia, and has an estimated urban population of 2,610,483. ...</v>
+    <v>4</v>
+    <v>5</v>
+    <v>7</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Mogadishu</v>
+    <v>10</v>
+    <v>Mogadishu</v>
+    <v>mdp/vdpid/7445650460117041153</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Hargeisa</v>
+    <v>32e3b46b-dc09-d15f-f1c3-f766c5fbf83c</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Maroodi Jeeh</v>
+    <v>b0c29435-2106-e994-2ebd-c00b3a92276a</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>33</fb>
+    <v>8</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Somaliland</v>
+    <v>c7ce2d76-6e72-4ca2-f1bb-74cb77e07d6a</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+    <v>6</v>
+    <v>10</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Hargeisa</v>
+  </rv>
+  <rv s="1">
+    <fb>9.5655560000000008</fb>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Abdikarim Ahmed Mooge (Mayor)</v>
+    <v>a248bd8f-0f72-9601-15c2-95b406388a8b</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>1</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=hargeisa&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>44.060555999999998</fb>
+    <v>9</v>
+  </rv>
+  <rv s="1">
+    <fb>760000</fb>
+    <v>8</v>
+  </rv>
+  <rv s="5">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>32e3b46b-dc09-d15f-f1c3-f766c5fbf83c</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>11</v>
+    <v>2</v>
+    <v>Hargeisa</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>7</v>
+    <v>13</v>
+    <v>14</v>
+    <v>15</v>
+    <v>Hargeisa is the largest and capital city of the self-declared Republic of Somaliland, a de facto sovereign state in the Horn of Africa, which is still considered internationally to be part of Somalia. It is also the regional capital of the ...</v>
+    <v>16</v>
+    <v>17</v>
+    <v>19</v>
+    <v>20</v>
+    <v>21</v>
+    <v>Hargeisa</v>
+    <v>22</v>
+    <v>Hargeisa</v>
+    <v>mdp/vdpid/7344119322320568321</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Istanbul</v>
+    <v>fda0585c-e197-df02-9869-433da5f8d140</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Istanbul Province</v>
+    <v>aa3276af-e94f-620a-5fb3-4ee74dc3cf72</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>5343</fb>
+    <v>8</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Ottoman Empire</v>
+    <v>0c338db5-c8ae-34d9-8c36-b66fbb5a1277</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="2">
+    <v>2</v>
+    <v>6</v>
+    <v>12</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Istanbul</v>
+  </rv>
+  <rv s="1">
+    <fb>41.01</fb>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Ekrem İmamoğlu (Mayor)</v>
+    <v>ff38a013-97bc-5896-6f0d-896241a1c64c</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>2</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=istanbul+turkey&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>28.960277777778</fb>
+    <v>9</v>
+  </rv>
+  <rv s="1">
+    <fb>15462452</fb>
+    <v>8</v>
+  </rv>
+  <rv s="5">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>fda0585c-e197-df02-9869-433da5f8d140</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>13</v>
+    <v>2</v>
+    <v>Istanbul</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>14</v>
+    <v>25</v>
+    <v>26</v>
+    <v>27</v>
+    <v>Istanbul, formerly known as Constantinople, is the largest city in Turkey, serving as the country's economic, cultural and historic hub. The city straddles the Bosporus strait, lying in both Europe and Asia, and has a population of over 15 ...</v>
+    <v>28</v>
+    <v>29</v>
+    <v>31</v>
+    <v>32</v>
+    <v>33</v>
+    <v>Istanbul</v>
+    <v>34</v>
+    <v>Istanbul</v>
+    <v>mdp/vdpid/7245290133887385609</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Nairobi</v>
+    <v>df1ed42e-a684-844f-342a-4e9bec9a3e99</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Nairobi City County</v>
+    <v>5f5f4291-8c2a-dd93-a743-7cd01a7277d4</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>696</fb>
+    <v>8</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Kenya</v>
+    <v>8ee43333-b344-289c-d8b1-5abf5e6a5995</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="2">
+    <v>3</v>
+    <v>6</v>
+    <v>16</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Nairobi</v>
+  </rv>
+  <rv s="1">
+    <fb>-1.2863888888888999</fb>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Johnson Sakaja (Governor)</v>
+    <v>49ea9ee4-d456-7d07-b010-13d7485b62e8</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>3</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=nairobi&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>36.817222222222</fb>
+    <v>9</v>
+  </rv>
+  <rv s="1">
+    <fb>5545000</fb>
+    <v>8</v>
+  </rv>
+  <rv s="6">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>df1ed42e-a684-844f-342a-4e9bec9a3e99</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>17</v>
+    <v>18</v>
+    <v>Nairobi</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>19</v>
+    <v>37</v>
+    <v>37</v>
+    <v>38</v>
+    <v>39</v>
+    <v>Nairobi is the capital and largest city of Kenya. The name is derived from the Maasai phrase Enkare Nairobi, which translates to 'place of cool waters', a reference to the Nairobi River which flows through the city. The city proper had a ...</v>
+    <v>40</v>
+    <v>41</v>
+    <v>43</v>
+    <v>44</v>
+    <v>45</v>
+    <v>Nairobi</v>
+    <v>46</v>
+    <v>Nairobi</v>
+    <v>mdp/vdpid/8116144502579658754</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>London</v>
+    <v>8e0ba7b6-4225-fa8a-6369-1b5294e602a5</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>England</v>
+    <v>280d39e8-7217-6863-6980-a8c20c211c89</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Greater London</v>
+    <v>2ba8a441-178c-f2c0-26cb-a4b260b8c806</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>1572</fb>
+    <v>8</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>United Kingdom</v>
+    <v>b1a5155a-6bb2-4646-8f7c-3e6b3a53c831</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="2">
+    <v>4</v>
+    <v>6</v>
+    <v>20</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of London</v>
+  </rv>
+  <rv s="1">
+    <fb>51.507222222221998</fb>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Sadiq Khan (Mayor)</v>
+    <v>d7862dc2-4c03-1dc8-3412-7fe03041fdcb</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="3">
+    <v>4</v>
+  </rv>
+  <rv s="4">
+    <v>https://www.bing.com/search?q=london+england&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>-0.1275</fb>
+    <v>9</v>
+  </rv>
+  <rv s="1">
+    <fb>8799728</fb>
+    <v>8</v>
+  </rv>
+  <rv s="3">
+    <v>5</v>
+  </rv>
+  <rv s="7">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>8e0ba7b6-4225-fa8a-6369-1b5294e602a5</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>21</v>
+    <v>22</v>
+    <v>London</v>
+    <v>4</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>23</v>
+    <v>49</v>
+    <v>50</v>
+    <v>51</v>
+    <v>52</v>
+    <v>London is the capital and largest city of England, and the United Kingdom, with a population of around 8.8 million, and the largest city in Western Europe by metropolitan area, with a population of 14,800,000. It stands on the River Thames in ...</v>
+    <v>53</v>
+    <v>54</v>
+    <v>56</v>
+    <v>57</v>
+    <v>58</v>
+    <v>London</v>
+    <v>59</v>
+    <v>60</v>
+    <v>London</v>
+    <v>mdp/vdpid/5471798185326280713</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
+  <s t="_linkedentity2">
+    <k n="%EntityServiceId" t="i"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="_Icon" t="s"/>
+  </s>
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_webimage">
+    <k n="WebImageIdentifier" t="i"/>
+    <k n="_Provider" t="spb"/>
+    <k n="Attribution" t="spb"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="ComputedImage" t="b"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Admin Division 1 (State/province/other)" t="r"/>
+    <k n="Area" t="r"/>
+    <k n="Country/region" t="r"/>
+    <k n="Description" t="s"/>
+    <k n="Image" t="r"/>
+    <k n="Latitude" t="r"/>
+    <k n="Leader(s)" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Longitude" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="Population" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Admin Division 1 (State/province/other)" t="r"/>
+    <k n="Admin Division 2 (County/district/other)" t="r"/>
+    <k n="Area" t="r"/>
+    <k n="Country/region" t="r"/>
+    <k n="Description" t="s"/>
+    <k n="Image" t="r"/>
+    <k n="Latitude" t="r"/>
+    <k n="Leader(s)" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Longitude" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="Population" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Admin Division 1 (State/province/other)" t="r"/>
+    <k n="Admin Division 2 (County/district/other)" t="r"/>
+    <k n="Area" t="r"/>
+    <k n="Country/region" t="r"/>
+    <k n="Description" t="s"/>
+    <k n="Image" t="r"/>
+    <k n="Latitude" t="r"/>
+    <k n="Leader(s)" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Longitude" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="Population" t="r"/>
+    <k n="Time zone(s)" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="3">
+    <a count="25">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Admin Division 1 (State/province/other)</v>
+      <v t="s">Country/region</v>
+      <v t="s">Leader(s)</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Area</v>
+      <v t="s">Latitude</v>
+      <v t="s">Longitude</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">Description</v>
+    </a>
+    <a count="26">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Admin Division 2 (County/district/other)</v>
+      <v t="s">Admin Division 1 (State/province/other)</v>
+      <v t="s">Country/region</v>
+      <v t="s">Leader(s)</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Area</v>
+      <v t="s">Latitude</v>
+      <v t="s">Longitude</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">Description</v>
+    </a>
+    <a count="27">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Admin Division 2 (County/district/other)</v>
+      <v t="s">Admin Division 1 (State/province/other)</v>
+      <v t="s">Country/region</v>
+      <v t="s">Leader(s)</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Area</v>
+      <v t="s">Latitude</v>
+      <v t="s">Longitude</v>
+      <v t="s">Time zone(s)</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">Description</v>
+    </a>
+  </spbArrays>
+  <spbData count="24">
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Mogadishu	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="3">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="4">
+      <v>3</v>
+      <v>3</v>
+      <v>3</v>
+    </spb>
+    <spb s="5">
+      <v>1</v>
+      <v>2</v>
+    </spb>
+    <spb s="6">
+      <v>https://www.bing.com</v>
+      <v>https://www.bing.com/th?id=Ga%5Cbing_yt.png&amp;w=100&amp;h=40&amp;c=0&amp;pid=0.1</v>
+      <v>Powered by Bing</v>
+    </spb>
+    <spb s="7">
+      <v>square km</v>
+      <v>2015</v>
+    </spb>
+    <spb s="8">
+      <v>3</v>
+    </spb>
+    <spb s="8">
+      <v>4</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Hargeisa	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="1">
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+      <v>10</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Istanbul	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="1">
+      <v>12</v>
+      <v>12</v>
+      <v>12</v>
+      <v>12</v>
+      <v>12</v>
+      <v>12</v>
+      <v>12</v>
+      <v>12</v>
+      <v>12</v>
+    </spb>
+    <spb s="7">
+      <v>square km</v>
+      <v>2020</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Nairobi	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Nairobi	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="9">
+      <v>15</v>
+      <v>16</v>
+      <v>16</v>
+      <v>16</v>
+      <v>16</v>
+      <v>16</v>
+      <v>16</v>
+      <v>16</v>
+      <v>16</v>
+      <v>16</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="7">
+      <v>square km</v>
+      <v>2016</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/London	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="9">
+      <v>20</v>
+      <v>20</v>
+      <v>20</v>
+      <v>20</v>
+      <v>20</v>
+      <v>20</v>
+      <v>20</v>
+      <v>20</v>
+      <v>20</v>
+      <v>20</v>
+    </spb>
+    <spb s="2">
+      <v>2</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="7">
+      <v>square km</v>
+      <v>2021</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="10">
+  <s>
+    <k n="SourceText" t="s"/>
+    <k n="LicenseText" t="s"/>
+    <k n="SourceAddress" t="s"/>
+    <k n="LicenseAddress" t="s"/>
+  </s>
+  <s>
+    <k n="Area" t="spb"/>
+    <k n="Name" t="spb"/>
+    <k n="Latitude" t="spb"/>
+    <k n="Longitude" t="spb"/>
+    <k n="Population" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="Description" t="spb"/>
+    <k n="Country/region" t="spb"/>
+    <k n="Admin Division 1 (State/province/other)" t="spb"/>
+  </s>
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="UniqueName" t="spb"/>
+    <k n="VDPID/VSID" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Name" t="i"/>
+    <k n="Image" t="i"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="Area" t="s"/>
+    <k n="Population" t="s"/>
+  </s>
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="Area" t="spb"/>
+    <k n="Name" t="spb"/>
+    <k n="Latitude" t="spb"/>
+    <k n="Longitude" t="spb"/>
+    <k n="Population" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="Description" t="spb"/>
+    <k n="Country/region" t="spb"/>
+    <k n="Admin Division 1 (State/province/other)" t="spb"/>
+    <k n="Admin Division 2 (County/district/other)" t="spb"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="2">
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="IsTitleField" t="b"/>
+    <rPr n="IsHeroField" t="b"/>
+    <rPr n="NumberFormat" t="s"/>
+  </richProperties>
+  <richStyles>
+    <rSty>
+      <rpv i="0">1</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="2">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="2">0.0000</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -960,10 +3117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60544FB7-22A5-4752-BA5C-F0329FCC1E2A}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="J162" sqref="J162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -972,15 +3129,16 @@
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="26.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1002,31 +3160,34 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="E2" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -1034,46 +3195,5582 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2">
-        <v>4.5</v>
+      <c r="H2" s="4">
+        <v>32</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1">
-        <v>45663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" s="4">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="H3">
-        <v>3.8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1">
-        <v>45663</v>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="1">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="4">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="1">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="4">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="4">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="4">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="4">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="4">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="4">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="4">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="4">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="4">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="4">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="4">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="4">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="4">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="4">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="4">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="4">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="4">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="4">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="4">
+        <v>35</v>
+      </c>
+      <c r="I28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="4">
+        <v>24</v>
+      </c>
+      <c r="I29" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="4">
+        <v>33</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="4">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="4">
+        <v>45</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="4">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="4">
+        <v>35.297619047619101</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="4">
+        <v>35.535714285714299</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="4">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="4">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="4">
+        <v>35</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="4">
+        <v>50</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="4">
+        <v>48</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="4">
+        <v>33</v>
+      </c>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="4">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="1">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="4">
+        <v>33</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="1">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="4">
+        <v>37</v>
+      </c>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="1">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="4">
+        <v>52</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="1">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="4">
+        <v>32</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="1">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="4">
+        <v>35</v>
+      </c>
+      <c r="I47" t="s">
+        <v>64</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="1">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="4">
+        <v>32</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="1">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="4">
+        <v>34</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="1">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="4">
+        <v>32</v>
+      </c>
+      <c r="I50" t="s">
+        <v>64</v>
+      </c>
+      <c r="J50" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="1">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="4">
+        <v>37</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="1">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="4">
+        <v>35</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="1">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="4">
+        <v>31</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="1">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="4">
+        <v>29</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="1">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="4">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="1">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="4">
+        <v>33</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="1">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="4">
+        <v>44</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="1">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="4">
+        <v>31</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="1">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="4">
+        <v>35</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="1">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="4">
+        <v>29</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" t="s">
+        <v>142</v>
+      </c>
+      <c r="K60" s="1">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="4">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s">
+        <v>142</v>
+      </c>
+      <c r="K61" s="1">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="4">
+        <v>39</v>
+      </c>
+      <c r="I62" t="s">
+        <v>64</v>
+      </c>
+      <c r="J62" t="s">
+        <v>142</v>
+      </c>
+      <c r="K62" s="1">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="4">
+        <v>36</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" t="s">
+        <v>142</v>
+      </c>
+      <c r="K63" s="1">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="4">
+        <v>34</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" t="s">
+        <v>142</v>
+      </c>
+      <c r="K64" s="1">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="4">
+        <v>32</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="1">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="4">
+        <v>32</v>
+      </c>
+      <c r="I66" t="s">
+        <v>64</v>
+      </c>
+      <c r="J66" t="s">
+        <v>142</v>
+      </c>
+      <c r="K66" s="1">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="4">
+        <v>25</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="1">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="4">
+        <v>25</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" t="s">
+        <v>142</v>
+      </c>
+      <c r="K68" s="1">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" s="4">
+        <v>44</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" t="s">
+        <v>142</v>
+      </c>
+      <c r="K69" s="1">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F70" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="4">
+        <v>34</v>
+      </c>
+      <c r="I70" t="s">
+        <v>64</v>
+      </c>
+      <c r="J70" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="1">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="4">
+        <v>37</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="1">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="4">
+        <v>27</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" t="s">
+        <v>142</v>
+      </c>
+      <c r="K72" s="1">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="4">
+        <v>48</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" t="s">
+        <v>142</v>
+      </c>
+      <c r="K73" s="1">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="4">
+        <v>32</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="1">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="4">
+        <v>29</v>
+      </c>
+      <c r="I75" t="s">
+        <v>64</v>
+      </c>
+      <c r="J75" t="s">
+        <v>142</v>
+      </c>
+      <c r="K75" s="1">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>173</v>
+      </c>
+      <c r="B76" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="4">
+        <v>39</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" t="s">
+        <v>142</v>
+      </c>
+      <c r="K76" s="1">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="4">
+        <v>38</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" t="s">
+        <v>142</v>
+      </c>
+      <c r="K77" s="1">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="4">
+        <v>43</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" t="s">
+        <v>142</v>
+      </c>
+      <c r="K78" s="1">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="4">
+        <v>34</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="1">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="4">
+        <v>39</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" t="s">
+        <v>142</v>
+      </c>
+      <c r="K80" s="1">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="4">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" t="s">
+        <v>142</v>
+      </c>
+      <c r="K81" s="1">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>185</v>
+      </c>
+      <c r="B82" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="4">
+        <v>35</v>
+      </c>
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" t="s">
+        <v>142</v>
+      </c>
+      <c r="K82" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>187</v>
+      </c>
+      <c r="B83" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="4">
+        <v>37</v>
+      </c>
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="4">
+        <v>35</v>
+      </c>
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" t="s">
+        <v>142</v>
+      </c>
+      <c r="K84" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="4">
+        <v>26</v>
+      </c>
+      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>193</v>
+      </c>
+      <c r="B86" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F86" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>195</v>
+      </c>
+      <c r="H86" s="4">
+        <v>35</v>
+      </c>
+      <c r="I86" t="s">
+        <v>79</v>
+      </c>
+      <c r="J86" t="s">
+        <v>142</v>
+      </c>
+      <c r="K86" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F87" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="4">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" t="s">
+        <v>199</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" s="4">
+        <v>28</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" s="4">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" s="4">
+        <v>51</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" t="s">
+        <v>142</v>
+      </c>
+      <c r="K90" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>204</v>
+      </c>
+      <c r="B91" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F91" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="4">
+        <v>29</v>
+      </c>
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F92" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" t="s">
+        <v>208</v>
+      </c>
+      <c r="H92" s="4">
+        <v>35</v>
+      </c>
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>209</v>
+      </c>
+      <c r="B93" t="s">
+        <v>210</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="4">
+        <v>32</v>
+      </c>
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" t="s">
+        <v>142</v>
+      </c>
+      <c r="K93" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>211</v>
+      </c>
+      <c r="B94" t="s">
+        <v>212</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="4">
+        <v>28</v>
+      </c>
+      <c r="I94" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" t="s">
+        <v>142</v>
+      </c>
+      <c r="K94" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B95" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s">
+        <v>195</v>
+      </c>
+      <c r="H95" s="4">
+        <v>31</v>
+      </c>
+      <c r="I95" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" t="s">
+        <v>142</v>
+      </c>
+      <c r="K95" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>215</v>
+      </c>
+      <c r="B96" t="s">
+        <v>216</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F96" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="4">
+        <v>40</v>
+      </c>
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" t="s">
+        <v>142</v>
+      </c>
+      <c r="K96" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>217</v>
+      </c>
+      <c r="B97" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F97" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="4">
+        <v>27</v>
+      </c>
+      <c r="I97" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" t="s">
+        <v>142</v>
+      </c>
+      <c r="K97" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>219</v>
+      </c>
+      <c r="B98" t="s">
+        <v>220</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F98" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="4">
+        <v>41</v>
+      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" t="s">
+        <v>142</v>
+      </c>
+      <c r="K98" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>221</v>
+      </c>
+      <c r="B99" t="s">
+        <v>222</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="4">
+        <v>31</v>
+      </c>
+      <c r="I99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>57</v>
+      </c>
+      <c r="E100" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" s="4">
+        <v>38</v>
+      </c>
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" t="s">
+        <v>142</v>
+      </c>
+      <c r="K100" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>225</v>
+      </c>
+      <c r="B101" t="s">
+        <v>226</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="4">
+        <v>31</v>
+      </c>
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="1">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>227</v>
+      </c>
+      <c r="B102" t="s">
+        <v>228</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" t="s">
+        <v>195</v>
+      </c>
+      <c r="H102" s="4">
+        <v>35</v>
+      </c>
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" t="s">
+        <v>142</v>
+      </c>
+      <c r="K102" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>229</v>
+      </c>
+      <c r="B103" t="s">
+        <v>230</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F103" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" s="4">
+        <v>26</v>
+      </c>
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>231</v>
+      </c>
+      <c r="B104" t="s">
+        <v>232</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F104" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" t="s">
+        <v>208</v>
+      </c>
+      <c r="H104" s="4">
+        <v>37</v>
+      </c>
+      <c r="I104" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" t="s">
+        <v>142</v>
+      </c>
+      <c r="K104" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>233</v>
+      </c>
+      <c r="B105" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F105" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" t="s">
+        <v>21</v>
+      </c>
+      <c r="H105" s="4">
+        <v>27</v>
+      </c>
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>235</v>
+      </c>
+      <c r="B106" t="s">
+        <v>236</v>
+      </c>
+      <c r="C106" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" t="s">
+        <v>208</v>
+      </c>
+      <c r="H106" s="4">
+        <v>28</v>
+      </c>
+      <c r="I106" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106" t="s">
+        <v>18</v>
+      </c>
+      <c r="K106" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>237</v>
+      </c>
+      <c r="B107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F107" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" s="4">
+        <v>31</v>
+      </c>
+      <c r="I107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107" t="s">
+        <v>142</v>
+      </c>
+      <c r="K107" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>239</v>
+      </c>
+      <c r="B108" t="s">
+        <v>240</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F108" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" s="4">
+        <v>32</v>
+      </c>
+      <c r="I108" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108" t="s">
+        <v>142</v>
+      </c>
+      <c r="K108" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>241</v>
+      </c>
+      <c r="B109" t="s">
+        <v>242</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F109" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" t="s">
+        <v>21</v>
+      </c>
+      <c r="H109" s="4">
+        <v>32</v>
+      </c>
+      <c r="I109" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109" t="s">
+        <v>142</v>
+      </c>
+      <c r="K109" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>243</v>
+      </c>
+      <c r="B110" t="s">
+        <v>244</v>
+      </c>
+      <c r="C110" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F110" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" t="s">
+        <v>21</v>
+      </c>
+      <c r="H110" s="4">
+        <v>42</v>
+      </c>
+      <c r="I110" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>245</v>
+      </c>
+      <c r="B111" t="s">
+        <v>246</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F111" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s">
+        <v>21</v>
+      </c>
+      <c r="H111" s="4">
+        <v>24</v>
+      </c>
+      <c r="I111" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111" t="s">
+        <v>18</v>
+      </c>
+      <c r="K111" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>247</v>
+      </c>
+      <c r="B112" t="s">
+        <v>248</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F112" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" s="4">
+        <v>45</v>
+      </c>
+      <c r="I112" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" t="s">
+        <v>142</v>
+      </c>
+      <c r="K112" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>249</v>
+      </c>
+      <c r="B113" t="s">
+        <v>250</v>
+      </c>
+      <c r="C113" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F113" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>16</v>
+      </c>
+      <c r="H113" s="4">
+        <v>31</v>
+      </c>
+      <c r="I113" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113" t="s">
+        <v>142</v>
+      </c>
+      <c r="K113" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>251</v>
+      </c>
+      <c r="B114" t="s">
+        <v>252</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>16</v>
+      </c>
+      <c r="H114" s="4">
+        <v>42</v>
+      </c>
+      <c r="I114" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114" t="s">
+        <v>142</v>
+      </c>
+      <c r="K114" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>253</v>
+      </c>
+      <c r="B115" t="s">
+        <v>254</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F115" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115" s="4">
+        <v>27</v>
+      </c>
+      <c r="I115" t="s">
+        <v>17</v>
+      </c>
+      <c r="J115" t="s">
+        <v>142</v>
+      </c>
+      <c r="K115" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>255</v>
+      </c>
+      <c r="B116" t="s">
+        <v>256</v>
+      </c>
+      <c r="C116" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F116" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>195</v>
+      </c>
+      <c r="H116" s="4">
+        <v>32</v>
+      </c>
+      <c r="I116" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116" t="s">
+        <v>142</v>
+      </c>
+      <c r="K116" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>257</v>
+      </c>
+      <c r="B117" t="s">
+        <v>258</v>
+      </c>
+      <c r="C117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F117" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>195</v>
+      </c>
+      <c r="H117" s="4">
+        <v>30</v>
+      </c>
+      <c r="I117" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117" t="s">
+        <v>142</v>
+      </c>
+      <c r="K117" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>259</v>
+      </c>
+      <c r="B118" t="s">
+        <v>260</v>
+      </c>
+      <c r="C118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F118" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>195</v>
+      </c>
+      <c r="H118" s="4">
+        <v>43</v>
+      </c>
+      <c r="I118" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118" t="s">
+        <v>142</v>
+      </c>
+      <c r="K118" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>261</v>
+      </c>
+      <c r="B119" t="s">
+        <v>262</v>
+      </c>
+      <c r="C119" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F119" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>195</v>
+      </c>
+      <c r="H119" s="4">
+        <v>34</v>
+      </c>
+      <c r="I119" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119" t="s">
+        <v>18</v>
+      </c>
+      <c r="K119" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>263</v>
+      </c>
+      <c r="B120" t="s">
+        <v>264</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F120" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>16</v>
+      </c>
+      <c r="H120" s="4">
+        <v>35</v>
+      </c>
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120" t="s">
+        <v>18</v>
+      </c>
+      <c r="K120" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>265</v>
+      </c>
+      <c r="B121" t="s">
+        <v>266</v>
+      </c>
+      <c r="C121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F121" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>195</v>
+      </c>
+      <c r="H121" s="4">
+        <v>45</v>
+      </c>
+      <c r="I121" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121" t="s">
+        <v>142</v>
+      </c>
+      <c r="K121" s="1">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
+        <v>267</v>
+      </c>
+      <c r="B122" t="s">
+        <v>268</v>
+      </c>
+      <c r="C122" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F122" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" t="s">
+        <v>195</v>
+      </c>
+      <c r="H122" s="4">
+        <v>30</v>
+      </c>
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122" t="s">
+        <v>18</v>
+      </c>
+      <c r="K122" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" t="s">
+        <v>269</v>
+      </c>
+      <c r="B123" t="s">
+        <v>270</v>
+      </c>
+      <c r="C123" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" t="s">
+        <v>195</v>
+      </c>
+      <c r="H123" s="4">
+        <v>27</v>
+      </c>
+      <c r="I123" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123" t="s">
+        <v>142</v>
+      </c>
+      <c r="K123" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>271</v>
+      </c>
+      <c r="B124" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F124" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" t="s">
+        <v>16</v>
+      </c>
+      <c r="H124" s="4">
+        <v>26</v>
+      </c>
+      <c r="I124" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
+        <v>273</v>
+      </c>
+      <c r="B125" t="s">
+        <v>274</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F125" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" t="s">
+        <v>21</v>
+      </c>
+      <c r="H125" s="4">
+        <v>35</v>
+      </c>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125" t="s">
+        <v>18</v>
+      </c>
+      <c r="K125" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" t="s">
+        <v>275</v>
+      </c>
+      <c r="B126" t="s">
+        <v>276</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F126" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" s="4">
+        <v>27</v>
+      </c>
+      <c r="I126" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126" t="s">
+        <v>142</v>
+      </c>
+      <c r="K126" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" t="s">
+        <v>277</v>
+      </c>
+      <c r="B127" t="s">
+        <v>278</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F127" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" t="s">
+        <v>21</v>
+      </c>
+      <c r="H127" s="4">
+        <v>33</v>
+      </c>
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127" t="s">
+        <v>18</v>
+      </c>
+      <c r="K127" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" t="s">
+        <v>279</v>
+      </c>
+      <c r="B128" t="s">
+        <v>280</v>
+      </c>
+      <c r="C128" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F128" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>195</v>
+      </c>
+      <c r="H128" s="4">
+        <v>25</v>
+      </c>
+      <c r="I128" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" t="s">
+        <v>142</v>
+      </c>
+      <c r="K128" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" t="s">
+        <v>281</v>
+      </c>
+      <c r="B129" t="s">
+        <v>282</v>
+      </c>
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>16</v>
+      </c>
+      <c r="H129" s="4">
+        <v>34</v>
+      </c>
+      <c r="I129" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129" t="s">
+        <v>142</v>
+      </c>
+      <c r="K129" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" t="s">
+        <v>283</v>
+      </c>
+      <c r="B130" t="s">
+        <v>284</v>
+      </c>
+      <c r="C130" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F130" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>21</v>
+      </c>
+      <c r="H130" s="4">
+        <v>28</v>
+      </c>
+      <c r="I130" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" t="s">
+        <v>142</v>
+      </c>
+      <c r="K130" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" t="s">
+        <v>285</v>
+      </c>
+      <c r="B131" t="s">
+        <v>286</v>
+      </c>
+      <c r="C131" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F131" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>21</v>
+      </c>
+      <c r="H131" s="4">
+        <v>31</v>
+      </c>
+      <c r="I131" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" t="s">
+        <v>142</v>
+      </c>
+      <c r="K131" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
+        <v>287</v>
+      </c>
+      <c r="B132" t="s">
+        <v>288</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F132" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132" s="4">
+        <v>34</v>
+      </c>
+      <c r="I132" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132" t="s">
+        <v>142</v>
+      </c>
+      <c r="K132" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" t="s">
+        <v>289</v>
+      </c>
+      <c r="B133" t="s">
+        <v>290</v>
+      </c>
+      <c r="C133" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F133" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" s="4">
+        <v>32</v>
+      </c>
+      <c r="I133" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133" t="s">
+        <v>18</v>
+      </c>
+      <c r="K133" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" t="s">
+        <v>291</v>
+      </c>
+      <c r="B134" t="s">
+        <v>292</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F134" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>16</v>
+      </c>
+      <c r="H134" s="4">
+        <v>33</v>
+      </c>
+      <c r="I134" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134" t="s">
+        <v>142</v>
+      </c>
+      <c r="K134" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" t="s">
+        <v>293</v>
+      </c>
+      <c r="B135" t="s">
+        <v>294</v>
+      </c>
+      <c r="C135" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F135" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>21</v>
+      </c>
+      <c r="H135" s="4">
+        <v>33</v>
+      </c>
+      <c r="I135" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135" t="s">
+        <v>142</v>
+      </c>
+      <c r="K135" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" t="s">
+        <v>295</v>
+      </c>
+      <c r="B136" t="s">
+        <v>296</v>
+      </c>
+      <c r="C136" t="s">
+        <v>24</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F136" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" s="4">
+        <v>30</v>
+      </c>
+      <c r="I136" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136" t="s">
+        <v>142</v>
+      </c>
+      <c r="K136" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" t="s">
+        <v>297</v>
+      </c>
+      <c r="B137" t="s">
+        <v>298</v>
+      </c>
+      <c r="C137" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" t="s">
+        <v>21</v>
+      </c>
+      <c r="H137" s="4">
+        <v>33</v>
+      </c>
+      <c r="I137" t="s">
+        <v>17</v>
+      </c>
+      <c r="J137" t="s">
+        <v>142</v>
+      </c>
+      <c r="K137" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" t="s">
+        <v>299</v>
+      </c>
+      <c r="B138" t="s">
+        <v>300</v>
+      </c>
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F138" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" t="s">
+        <v>21</v>
+      </c>
+      <c r="H138" s="4">
+        <v>33</v>
+      </c>
+      <c r="I138" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138" t="s">
+        <v>18</v>
+      </c>
+      <c r="K138" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" t="s">
+        <v>301</v>
+      </c>
+      <c r="B139" t="s">
+        <v>302</v>
+      </c>
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F139" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139" s="4">
+        <v>32</v>
+      </c>
+      <c r="I139" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139" t="s">
+        <v>18</v>
+      </c>
+      <c r="K139" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" t="s">
+        <v>303</v>
+      </c>
+      <c r="B140" t="s">
+        <v>304</v>
+      </c>
+      <c r="C140" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s">
+        <v>195</v>
+      </c>
+      <c r="H140" s="4">
+        <v>29</v>
+      </c>
+      <c r="I140" t="s">
+        <v>17</v>
+      </c>
+      <c r="J140" t="s">
+        <v>142</v>
+      </c>
+      <c r="K140" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" t="s">
+        <v>305</v>
+      </c>
+      <c r="B141" t="s">
+        <v>306</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F141" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s">
+        <v>195</v>
+      </c>
+      <c r="H141" s="4">
+        <v>39</v>
+      </c>
+      <c r="I141" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141" t="s">
+        <v>142</v>
+      </c>
+      <c r="K141" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" t="s">
+        <v>307</v>
+      </c>
+      <c r="B142" t="s">
+        <v>308</v>
+      </c>
+      <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" s="4">
+        <v>24</v>
+      </c>
+      <c r="I142" t="s">
+        <v>17</v>
+      </c>
+      <c r="J142" t="s">
+        <v>18</v>
+      </c>
+      <c r="K142" s="1">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" t="s">
+        <v>309</v>
+      </c>
+      <c r="B143" t="s">
+        <v>310</v>
+      </c>
+      <c r="C143" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F143" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>195</v>
+      </c>
+      <c r="H143" s="4">
+        <v>25</v>
+      </c>
+      <c r="I143" t="s">
+        <v>17</v>
+      </c>
+      <c r="J143" t="s">
+        <v>18</v>
+      </c>
+      <c r="K143" s="1">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" t="s">
+        <v>311</v>
+      </c>
+      <c r="B144" t="s">
+        <v>312</v>
+      </c>
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F144" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" s="4">
+        <v>33</v>
+      </c>
+      <c r="I144" t="s">
+        <v>17</v>
+      </c>
+      <c r="J144" t="s">
+        <v>18</v>
+      </c>
+      <c r="K144" s="1">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" t="s">
+        <v>313</v>
+      </c>
+      <c r="B145" t="s">
+        <v>314</v>
+      </c>
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" t="s">
+        <v>57</v>
+      </c>
+      <c r="E145" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>21</v>
+      </c>
+      <c r="H145" s="4">
+        <v>27</v>
+      </c>
+      <c r="I145" t="s">
+        <v>17</v>
+      </c>
+      <c r="J145" t="s">
+        <v>18</v>
+      </c>
+      <c r="K145" s="1">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" t="s">
+        <v>315</v>
+      </c>
+      <c r="B146" t="s">
+        <v>316</v>
+      </c>
+      <c r="C146" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F146" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>21</v>
+      </c>
+      <c r="H146" s="4">
+        <v>32</v>
+      </c>
+      <c r="I146" t="s">
+        <v>17</v>
+      </c>
+      <c r="J146" t="s">
+        <v>18</v>
+      </c>
+      <c r="K146" s="1">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" t="s">
+        <v>317</v>
+      </c>
+      <c r="B147" t="s">
+        <v>318</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>16</v>
+      </c>
+      <c r="H147" s="4">
+        <v>44</v>
+      </c>
+      <c r="I147" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147" t="s">
+        <v>142</v>
+      </c>
+      <c r="K147" s="1">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" t="s">
+        <v>319</v>
+      </c>
+      <c r="B148" t="s">
+        <v>320</v>
+      </c>
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F148" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>16</v>
+      </c>
+      <c r="H148" s="4">
+        <v>31</v>
+      </c>
+      <c r="I148" t="s">
+        <v>17</v>
+      </c>
+      <c r="J148" t="s">
+        <v>18</v>
+      </c>
+      <c r="K148" s="1">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" t="s">
+        <v>321</v>
+      </c>
+      <c r="B149" t="s">
+        <v>322</v>
+      </c>
+      <c r="C149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F149" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" s="4">
+        <v>33</v>
+      </c>
+      <c r="I149" t="s">
+        <v>17</v>
+      </c>
+      <c r="J149" t="s">
+        <v>18</v>
+      </c>
+      <c r="K149" s="1">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" t="s">
+        <v>323</v>
+      </c>
+      <c r="B150" t="s">
+        <v>324</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F150" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>208</v>
+      </c>
+      <c r="H150" s="4">
+        <v>36</v>
+      </c>
+      <c r="I150" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150" t="s">
+        <v>18</v>
+      </c>
+      <c r="K150" s="1">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" t="s">
+        <v>325</v>
+      </c>
+      <c r="B151" t="s">
+        <v>326</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F151" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>21</v>
+      </c>
+      <c r="H151" s="4">
+        <v>42</v>
+      </c>
+      <c r="I151" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151" t="s">
+        <v>18</v>
+      </c>
+      <c r="K151" s="1">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" t="s">
+        <v>327</v>
+      </c>
+      <c r="B152" t="s">
+        <v>328</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F152" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" t="s">
+        <v>195</v>
+      </c>
+      <c r="H152" s="4">
+        <v>36</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J152" t="s">
+        <v>18</v>
+      </c>
+      <c r="K152" s="1">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" t="s">
+        <v>329</v>
+      </c>
+      <c r="B153" t="s">
+        <v>330</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F153" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" t="s">
+        <v>195</v>
+      </c>
+      <c r="H153" s="4">
+        <v>26</v>
+      </c>
+      <c r="I153" t="s">
+        <v>76</v>
+      </c>
+      <c r="J153" t="s">
+        <v>142</v>
+      </c>
+      <c r="K153" s="1">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" t="s">
+        <v>331</v>
+      </c>
+      <c r="B154" t="s">
+        <v>332</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F154" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" t="s">
+        <v>195</v>
+      </c>
+      <c r="H154" s="4">
+        <v>29</v>
+      </c>
+      <c r="I154" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154" t="s">
+        <v>142</v>
+      </c>
+      <c r="K154" s="1">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" t="s">
+        <v>333</v>
+      </c>
+      <c r="B155" t="s">
+        <v>334</v>
+      </c>
+      <c r="C155" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F155" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" t="s">
+        <v>195</v>
+      </c>
+      <c r="H155" s="4">
+        <v>31</v>
+      </c>
+      <c r="I155" t="s">
+        <v>17</v>
+      </c>
+      <c r="J155" t="s">
+        <v>18</v>
+      </c>
+      <c r="K155" s="1">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" t="s">
+        <v>335</v>
+      </c>
+      <c r="B156" t="s">
+        <v>336</v>
+      </c>
+      <c r="C156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F156" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" t="s">
+        <v>195</v>
+      </c>
+      <c r="H156" s="4">
+        <v>25</v>
+      </c>
+      <c r="I156" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156" t="s">
+        <v>142</v>
+      </c>
+      <c r="K156" s="1">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" t="s">
+        <v>337</v>
+      </c>
+      <c r="B157" t="s">
+        <v>338</v>
+      </c>
+      <c r="C157" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F157" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" t="s">
+        <v>195</v>
+      </c>
+      <c r="H157" s="4">
+        <v>30</v>
+      </c>
+      <c r="I157" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157" t="s">
+        <v>142</v>
+      </c>
+      <c r="K157" s="1">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" t="s">
+        <v>339</v>
+      </c>
+      <c r="B158" t="s">
+        <v>340</v>
+      </c>
+      <c r="C158" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F158" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" t="s">
+        <v>16</v>
+      </c>
+      <c r="H158" s="4">
+        <v>27</v>
+      </c>
+      <c r="I158" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158" t="s">
+        <v>18</v>
+      </c>
+      <c r="K158" s="1">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" t="s">
+        <v>341</v>
+      </c>
+      <c r="B159" t="s">
+        <v>342</v>
+      </c>
+      <c r="C159" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F159" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" t="s">
+        <v>195</v>
+      </c>
+      <c r="H159" s="4">
+        <v>35</v>
+      </c>
+      <c r="I159" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" t="s">
+        <v>142</v>
+      </c>
+      <c r="K159" s="1">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" t="s">
+        <v>343</v>
+      </c>
+      <c r="B160" t="s">
+        <v>344</v>
+      </c>
+      <c r="C160" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F160" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" t="s">
+        <v>195</v>
+      </c>
+      <c r="H160" s="4">
+        <v>30</v>
+      </c>
+      <c r="I160" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160" t="s">
+        <v>142</v>
+      </c>
+      <c r="K160" s="1">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" t="s">
+        <v>345</v>
+      </c>
+      <c r="B161" t="s">
+        <v>346</v>
+      </c>
+      <c r="C161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F161" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" t="s">
+        <v>21</v>
+      </c>
+      <c r="H161" s="4">
+        <v>30</v>
+      </c>
+      <c r="I161" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161" t="s">
+        <v>18</v>
+      </c>
+      <c r="K161" s="1">
+        <v>45697</v>
       </c>
     </row>
   </sheetData>

--- a/Metadata/Somali_Accent_DB_Metadata.xlsx
+++ b/Metadata/Somali_Accent_DB_Metadata.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\MI2PEPF000005B4\EXCELCNV\d974c8b0-d1aa-4bef-a02c-0ae81a73f1f0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA17A99-8F6F-4C3F-8911-0B3AF53D94B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{234095A6-81C9-4286-89A2-A878FA94F747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{1670D249-4C3F-47C1-8C14-12B4933AC961}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$G$1:$G$192</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -98,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="427">
   <si>
     <t>Speaker_ID</t>
   </si>
@@ -1139,6 +1142,246 @@
   </si>
   <si>
     <t>SOM160_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM161</t>
+  </si>
+  <si>
+    <t>SOM161_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM162</t>
+  </si>
+  <si>
+    <t>SOM162_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM163</t>
+  </si>
+  <si>
+    <t>SOM163_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM164</t>
+  </si>
+  <si>
+    <t>SOM164_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM165</t>
+  </si>
+  <si>
+    <t>SOM165_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM166</t>
+  </si>
+  <si>
+    <t>SOM166_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM167</t>
+  </si>
+  <si>
+    <t>SOM167_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM168</t>
+  </si>
+  <si>
+    <t>SOM168_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM169</t>
+  </si>
+  <si>
+    <t>SOM169_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM170</t>
+  </si>
+  <si>
+    <t>SOM170_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM171</t>
+  </si>
+  <si>
+    <t>SOM171_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM172</t>
+  </si>
+  <si>
+    <t>SOM172_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM173</t>
+  </si>
+  <si>
+    <t>SOM173_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM174</t>
+  </si>
+  <si>
+    <t>SOM174_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM175</t>
+  </si>
+  <si>
+    <t>SOM175_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM176</t>
+  </si>
+  <si>
+    <t>SOM176_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM177</t>
+  </si>
+  <si>
+    <t>SOM177_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM178</t>
+  </si>
+  <si>
+    <t>SOM178_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM179</t>
+  </si>
+  <si>
+    <t>SOM179_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM180</t>
+  </si>
+  <si>
+    <t>SOM180_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM181</t>
+  </si>
+  <si>
+    <t>SOM181_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM182</t>
+  </si>
+  <si>
+    <t>SOM182_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM183</t>
+  </si>
+  <si>
+    <t>SOM183_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM184</t>
+  </si>
+  <si>
+    <t>SOM184_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM185</t>
+  </si>
+  <si>
+    <t>SOM185_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM186</t>
+  </si>
+  <si>
+    <t>SOM186_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM187</t>
+  </si>
+  <si>
+    <t>SOM187_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM188</t>
+  </si>
+  <si>
+    <t>SOM188_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM189</t>
+  </si>
+  <si>
+    <t>SOM189_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM190</t>
+  </si>
+  <si>
+    <t>SOM190_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM191</t>
+  </si>
+  <si>
+    <t>SOM191_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM192</t>
+  </si>
+  <si>
+    <t>SOM192_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM193</t>
+  </si>
+  <si>
+    <t>SOM193_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM194</t>
+  </si>
+  <si>
+    <t>SOM194_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM195</t>
+  </si>
+  <si>
+    <t>SOM195_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM196</t>
+  </si>
+  <si>
+    <t>SOM196_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM197</t>
+  </si>
+  <si>
+    <t>SOM197_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM198</t>
+  </si>
+  <si>
+    <t>SOM198_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM199</t>
+  </si>
+  <si>
+    <t>SOM199_sentence1.wav</t>
+  </si>
+  <si>
+    <t>SOM200</t>
+  </si>
+  <si>
+    <t>SOM200_sentence1.wav</t>
   </si>
 </sst>
 </file>
@@ -3117,10 +3360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60544FB7-22A5-4752-BA5C-F0329FCC1E2A}">
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="J162" sqref="J162"/>
+    <sheetView tabSelected="1" topLeftCell="E198" workbookViewId="0">
+      <selection activeCell="J202" sqref="J202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4141,7 +4384,7 @@
         <v>16</v>
       </c>
       <c r="H29" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I29" t="s">
         <v>79</v>
@@ -7011,7 +7254,7 @@
         <v>21</v>
       </c>
       <c r="H111" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I111" t="s">
         <v>17</v>
@@ -8131,7 +8374,7 @@
         <v>195</v>
       </c>
       <c r="H143" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I143" t="s">
         <v>17</v>
@@ -8586,7 +8829,7 @@
         <v>195</v>
       </c>
       <c r="H156" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I156" t="s">
         <v>17</v>
@@ -8773,7 +9016,1408 @@
         <v>45697</v>
       </c>
     </row>
+    <row r="162" spans="1:11">
+      <c r="A162" t="s">
+        <v>347</v>
+      </c>
+      <c r="B162" t="s">
+        <v>348</v>
+      </c>
+      <c r="C162" t="s">
+        <v>24</v>
+      </c>
+      <c r="D162" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F162" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" t="s">
+        <v>195</v>
+      </c>
+      <c r="H162" s="4">
+        <v>29</v>
+      </c>
+      <c r="I162" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162" t="s">
+        <v>142</v>
+      </c>
+      <c r="K162" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" t="s">
+        <v>349</v>
+      </c>
+      <c r="B163" t="s">
+        <v>350</v>
+      </c>
+      <c r="C163" t="s">
+        <v>24</v>
+      </c>
+      <c r="D163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F163" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" t="s">
+        <v>195</v>
+      </c>
+      <c r="H163" s="4">
+        <v>29</v>
+      </c>
+      <c r="I163" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163" t="s">
+        <v>142</v>
+      </c>
+      <c r="K163" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" t="s">
+        <v>351</v>
+      </c>
+      <c r="B164" t="s">
+        <v>352</v>
+      </c>
+      <c r="C164" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F164" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" t="s">
+        <v>195</v>
+      </c>
+      <c r="H164" s="4">
+        <v>25</v>
+      </c>
+      <c r="I164" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" t="s">
+        <v>142</v>
+      </c>
+      <c r="K164" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" t="s">
+        <v>353</v>
+      </c>
+      <c r="B165" t="s">
+        <v>354</v>
+      </c>
+      <c r="C165" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F165" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" t="s">
+        <v>208</v>
+      </c>
+      <c r="H165" s="4">
+        <v>33</v>
+      </c>
+      <c r="I165" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165" t="s">
+        <v>142</v>
+      </c>
+      <c r="K165" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" t="s">
+        <v>355</v>
+      </c>
+      <c r="B166" t="s">
+        <v>356</v>
+      </c>
+      <c r="C166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" t="s">
+        <v>57</v>
+      </c>
+      <c r="E166" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F166" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" s="4">
+        <v>33</v>
+      </c>
+      <c r="I166" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166" t="s">
+        <v>142</v>
+      </c>
+      <c r="K166" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" t="s">
+        <v>357</v>
+      </c>
+      <c r="B167" t="s">
+        <v>358</v>
+      </c>
+      <c r="C167" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F167" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167" t="s">
+        <v>16</v>
+      </c>
+      <c r="H167" s="4">
+        <v>27</v>
+      </c>
+      <c r="I167" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167" t="s">
+        <v>18</v>
+      </c>
+      <c r="K167" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" t="s">
+        <v>359</v>
+      </c>
+      <c r="B168" t="s">
+        <v>360</v>
+      </c>
+      <c r="C168" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F168" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168" t="s">
+        <v>16</v>
+      </c>
+      <c r="H168" s="4">
+        <v>36</v>
+      </c>
+      <c r="I168" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168" t="s">
+        <v>142</v>
+      </c>
+      <c r="K168" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" t="s">
+        <v>361</v>
+      </c>
+      <c r="B169" t="s">
+        <v>362</v>
+      </c>
+      <c r="C169" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F169" t="s">
+        <v>15</v>
+      </c>
+      <c r="G169" t="s">
+        <v>21</v>
+      </c>
+      <c r="H169" s="4">
+        <v>33</v>
+      </c>
+      <c r="I169" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169" t="s">
+        <v>142</v>
+      </c>
+      <c r="K169" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" t="s">
+        <v>363</v>
+      </c>
+      <c r="B170" t="s">
+        <v>364</v>
+      </c>
+      <c r="C170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F170" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" t="s">
+        <v>21</v>
+      </c>
+      <c r="H170" s="4">
+        <v>30</v>
+      </c>
+      <c r="I170" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170" t="s">
+        <v>18</v>
+      </c>
+      <c r="K170" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" t="s">
+        <v>365</v>
+      </c>
+      <c r="B171" t="s">
+        <v>366</v>
+      </c>
+      <c r="C171" t="s">
+        <v>24</v>
+      </c>
+      <c r="D171" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F171" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" t="s">
+        <v>208</v>
+      </c>
+      <c r="H171" s="4">
+        <v>37</v>
+      </c>
+      <c r="I171" t="s">
+        <v>17</v>
+      </c>
+      <c r="J171" t="s">
+        <v>18</v>
+      </c>
+      <c r="K171" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" t="s">
+        <v>367</v>
+      </c>
+      <c r="B172" t="s">
+        <v>368</v>
+      </c>
+      <c r="C172" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F172" t="s">
+        <v>15</v>
+      </c>
+      <c r="G172" t="s">
+        <v>21</v>
+      </c>
+      <c r="H172" s="4">
+        <v>34</v>
+      </c>
+      <c r="I172" t="s">
+        <v>17</v>
+      </c>
+      <c r="J172" t="s">
+        <v>142</v>
+      </c>
+      <c r="K172" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" t="s">
+        <v>369</v>
+      </c>
+      <c r="B173" t="s">
+        <v>370</v>
+      </c>
+      <c r="C173" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F173" t="s">
+        <v>15</v>
+      </c>
+      <c r="G173" t="s">
+        <v>208</v>
+      </c>
+      <c r="H173" s="4">
+        <v>37</v>
+      </c>
+      <c r="I173" t="s">
+        <v>17</v>
+      </c>
+      <c r="J173" t="s">
+        <v>18</v>
+      </c>
+      <c r="K173" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" t="s">
+        <v>371</v>
+      </c>
+      <c r="B174" t="s">
+        <v>372</v>
+      </c>
+      <c r="C174" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F174" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" t="s">
+        <v>21</v>
+      </c>
+      <c r="H174" s="4">
+        <v>32</v>
+      </c>
+      <c r="I174" t="s">
+        <v>17</v>
+      </c>
+      <c r="J174" t="s">
+        <v>18</v>
+      </c>
+      <c r="K174" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" t="s">
+        <v>373</v>
+      </c>
+      <c r="B175" t="s">
+        <v>374</v>
+      </c>
+      <c r="C175" t="s">
+        <v>24</v>
+      </c>
+      <c r="D175" t="s">
+        <v>14</v>
+      </c>
+      <c r="E175" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F175" t="s">
+        <v>15</v>
+      </c>
+      <c r="G175" t="s">
+        <v>16</v>
+      </c>
+      <c r="H175" s="4">
+        <v>30</v>
+      </c>
+      <c r="I175" t="s">
+        <v>17</v>
+      </c>
+      <c r="J175" t="s">
+        <v>18</v>
+      </c>
+      <c r="K175" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" t="s">
+        <v>375</v>
+      </c>
+      <c r="B176" t="s">
+        <v>376</v>
+      </c>
+      <c r="C176" t="s">
+        <v>24</v>
+      </c>
+      <c r="D176" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F176" t="s">
+        <v>15</v>
+      </c>
+      <c r="G176" t="s">
+        <v>16</v>
+      </c>
+      <c r="H176" s="4">
+        <v>34</v>
+      </c>
+      <c r="I176" t="s">
+        <v>17</v>
+      </c>
+      <c r="J176" t="s">
+        <v>18</v>
+      </c>
+      <c r="K176" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" t="s">
+        <v>377</v>
+      </c>
+      <c r="B177" t="s">
+        <v>378</v>
+      </c>
+      <c r="C177" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F177" t="s">
+        <v>15</v>
+      </c>
+      <c r="G177" t="s">
+        <v>16</v>
+      </c>
+      <c r="H177" s="4">
+        <v>41</v>
+      </c>
+      <c r="I177" t="s">
+        <v>17</v>
+      </c>
+      <c r="J177" t="s">
+        <v>142</v>
+      </c>
+      <c r="K177" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" t="s">
+        <v>379</v>
+      </c>
+      <c r="B178" t="s">
+        <v>380</v>
+      </c>
+      <c r="C178" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178" t="s">
+        <v>14</v>
+      </c>
+      <c r="E178" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F178" t="s">
+        <v>15</v>
+      </c>
+      <c r="G178" t="s">
+        <v>195</v>
+      </c>
+      <c r="H178" s="4">
+        <v>36</v>
+      </c>
+      <c r="I178" t="s">
+        <v>17</v>
+      </c>
+      <c r="J178" t="s">
+        <v>142</v>
+      </c>
+      <c r="K178" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" t="s">
+        <v>381</v>
+      </c>
+      <c r="B179" t="s">
+        <v>382</v>
+      </c>
+      <c r="C179" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F179" t="s">
+        <v>15</v>
+      </c>
+      <c r="G179" t="s">
+        <v>16</v>
+      </c>
+      <c r="H179" s="4">
+        <v>22</v>
+      </c>
+      <c r="I179" t="s">
+        <v>17</v>
+      </c>
+      <c r="J179" t="s">
+        <v>18</v>
+      </c>
+      <c r="K179" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" t="s">
+        <v>383</v>
+      </c>
+      <c r="B180" t="s">
+        <v>384</v>
+      </c>
+      <c r="C180" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F180" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" t="s">
+        <v>16</v>
+      </c>
+      <c r="H180" s="4">
+        <v>26</v>
+      </c>
+      <c r="I180" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180" t="s">
+        <v>18</v>
+      </c>
+      <c r="K180" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" t="s">
+        <v>385</v>
+      </c>
+      <c r="B181" t="s">
+        <v>386</v>
+      </c>
+      <c r="C181" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F181" t="s">
+        <v>15</v>
+      </c>
+      <c r="G181" t="s">
+        <v>16</v>
+      </c>
+      <c r="H181" s="4">
+        <v>28</v>
+      </c>
+      <c r="I181" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181" t="s">
+        <v>142</v>
+      </c>
+      <c r="K181" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" t="s">
+        <v>387</v>
+      </c>
+      <c r="B182" t="s">
+        <v>388</v>
+      </c>
+      <c r="C182" t="s">
+        <v>24</v>
+      </c>
+      <c r="D182" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F182" t="s">
+        <v>15</v>
+      </c>
+      <c r="G182" t="s">
+        <v>16</v>
+      </c>
+      <c r="H182" s="4">
+        <v>31</v>
+      </c>
+      <c r="I182" t="s">
+        <v>17</v>
+      </c>
+      <c r="J182" t="s">
+        <v>142</v>
+      </c>
+      <c r="K182" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" t="s">
+        <v>389</v>
+      </c>
+      <c r="B183" t="s">
+        <v>390</v>
+      </c>
+      <c r="C183" t="s">
+        <v>24</v>
+      </c>
+      <c r="D183" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F183" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" t="s">
+        <v>208</v>
+      </c>
+      <c r="H183" s="4">
+        <v>31</v>
+      </c>
+      <c r="I183" t="s">
+        <v>17</v>
+      </c>
+      <c r="J183" t="s">
+        <v>142</v>
+      </c>
+      <c r="K183" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" t="s">
+        <v>391</v>
+      </c>
+      <c r="B184" t="s">
+        <v>392</v>
+      </c>
+      <c r="C184" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F184" t="s">
+        <v>15</v>
+      </c>
+      <c r="G184" t="s">
+        <v>21</v>
+      </c>
+      <c r="H184" s="4">
+        <v>55</v>
+      </c>
+      <c r="I184" t="s">
+        <v>17</v>
+      </c>
+      <c r="J184" t="s">
+        <v>142</v>
+      </c>
+      <c r="K184" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" t="s">
+        <v>393</v>
+      </c>
+      <c r="B185" t="s">
+        <v>394</v>
+      </c>
+      <c r="C185" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F185" t="s">
+        <v>15</v>
+      </c>
+      <c r="G185" t="s">
+        <v>21</v>
+      </c>
+      <c r="H185" s="4">
+        <v>40</v>
+      </c>
+      <c r="I185" t="s">
+        <v>17</v>
+      </c>
+      <c r="J185" t="s">
+        <v>142</v>
+      </c>
+      <c r="K185" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" t="s">
+        <v>395</v>
+      </c>
+      <c r="B186" t="s">
+        <v>396</v>
+      </c>
+      <c r="C186" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" t="s">
+        <v>57</v>
+      </c>
+      <c r="E186" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F186" t="s">
+        <v>15</v>
+      </c>
+      <c r="G186" t="s">
+        <v>16</v>
+      </c>
+      <c r="H186" s="4">
+        <v>28</v>
+      </c>
+      <c r="I186" t="s">
+        <v>17</v>
+      </c>
+      <c r="J186" t="s">
+        <v>18</v>
+      </c>
+      <c r="K186" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" t="s">
+        <v>397</v>
+      </c>
+      <c r="B187" t="s">
+        <v>398</v>
+      </c>
+      <c r="C187" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F187" t="s">
+        <v>15</v>
+      </c>
+      <c r="G187" t="s">
+        <v>21</v>
+      </c>
+      <c r="H187" s="4">
+        <v>43</v>
+      </c>
+      <c r="I187" t="s">
+        <v>17</v>
+      </c>
+      <c r="J187" t="s">
+        <v>18</v>
+      </c>
+      <c r="K187" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" t="s">
+        <v>399</v>
+      </c>
+      <c r="B188" t="s">
+        <v>400</v>
+      </c>
+      <c r="C188" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F188" t="s">
+        <v>15</v>
+      </c>
+      <c r="G188" t="s">
+        <v>208</v>
+      </c>
+      <c r="H188" s="4">
+        <v>41</v>
+      </c>
+      <c r="I188" t="s">
+        <v>17</v>
+      </c>
+      <c r="J188" t="s">
+        <v>18</v>
+      </c>
+      <c r="K188" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" t="s">
+        <v>401</v>
+      </c>
+      <c r="B189" t="s">
+        <v>402</v>
+      </c>
+      <c r="C189" t="s">
+        <v>24</v>
+      </c>
+      <c r="D189" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F189" t="s">
+        <v>15</v>
+      </c>
+      <c r="G189" t="s">
+        <v>195</v>
+      </c>
+      <c r="H189" s="4">
+        <v>30</v>
+      </c>
+      <c r="I189" t="s">
+        <v>17</v>
+      </c>
+      <c r="J189" t="s">
+        <v>142</v>
+      </c>
+      <c r="K189" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" t="s">
+        <v>403</v>
+      </c>
+      <c r="B190" t="s">
+        <v>404</v>
+      </c>
+      <c r="C190" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F190" t="s">
+        <v>15</v>
+      </c>
+      <c r="G190" t="s">
+        <v>195</v>
+      </c>
+      <c r="H190" s="4">
+        <v>38</v>
+      </c>
+      <c r="I190" t="s">
+        <v>17</v>
+      </c>
+      <c r="J190" t="s">
+        <v>142</v>
+      </c>
+      <c r="K190" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" t="s">
+        <v>405</v>
+      </c>
+      <c r="B191" t="s">
+        <v>406</v>
+      </c>
+      <c r="C191" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F191" t="s">
+        <v>15</v>
+      </c>
+      <c r="G191" t="s">
+        <v>208</v>
+      </c>
+      <c r="H191" s="4">
+        <v>43</v>
+      </c>
+      <c r="I191" t="s">
+        <v>17</v>
+      </c>
+      <c r="J191" t="s">
+        <v>18</v>
+      </c>
+      <c r="K191" s="1">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" t="s">
+        <v>407</v>
+      </c>
+      <c r="B192" t="s">
+        <v>408</v>
+      </c>
+      <c r="C192" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F192" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" t="s">
+        <v>16</v>
+      </c>
+      <c r="H192" s="4">
+        <v>30</v>
+      </c>
+      <c r="I192" t="s">
+        <v>17</v>
+      </c>
+      <c r="J192" t="s">
+        <v>142</v>
+      </c>
+      <c r="K192" s="1">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" t="s">
+        <v>409</v>
+      </c>
+      <c r="B193" t="s">
+        <v>410</v>
+      </c>
+      <c r="C193" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F193" t="s">
+        <v>15</v>
+      </c>
+      <c r="G193" t="s">
+        <v>16</v>
+      </c>
+      <c r="H193" s="4">
+        <v>31</v>
+      </c>
+      <c r="I193" t="s">
+        <v>17</v>
+      </c>
+      <c r="J193" t="s">
+        <v>142</v>
+      </c>
+      <c r="K193" s="1">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" t="s">
+        <v>411</v>
+      </c>
+      <c r="B194" t="s">
+        <v>412</v>
+      </c>
+      <c r="C194" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" t="s">
+        <v>14</v>
+      </c>
+      <c r="E194" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F194" t="s">
+        <v>15</v>
+      </c>
+      <c r="G194" t="s">
+        <v>16</v>
+      </c>
+      <c r="H194" s="4">
+        <v>29</v>
+      </c>
+      <c r="I194" t="s">
+        <v>17</v>
+      </c>
+      <c r="J194" t="s">
+        <v>142</v>
+      </c>
+      <c r="K194" s="1">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" t="s">
+        <v>413</v>
+      </c>
+      <c r="B195" t="s">
+        <v>414</v>
+      </c>
+      <c r="C195" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195" t="s">
+        <v>14</v>
+      </c>
+      <c r="E195" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F195" t="s">
+        <v>15</v>
+      </c>
+      <c r="G195" t="s">
+        <v>208</v>
+      </c>
+      <c r="H195" s="4">
+        <v>40</v>
+      </c>
+      <c r="I195" t="s">
+        <v>17</v>
+      </c>
+      <c r="J195" t="s">
+        <v>142</v>
+      </c>
+      <c r="K195" s="1">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" t="s">
+        <v>415</v>
+      </c>
+      <c r="B196" t="s">
+        <v>416</v>
+      </c>
+      <c r="C196" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196" t="s">
+        <v>14</v>
+      </c>
+      <c r="E196" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F196" t="s">
+        <v>15</v>
+      </c>
+      <c r="G196" t="s">
+        <v>16</v>
+      </c>
+      <c r="H196" s="4">
+        <v>42</v>
+      </c>
+      <c r="I196" t="s">
+        <v>17</v>
+      </c>
+      <c r="J196" t="s">
+        <v>18</v>
+      </c>
+      <c r="K196" s="1">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" t="s">
+        <v>417</v>
+      </c>
+      <c r="B197" t="s">
+        <v>418</v>
+      </c>
+      <c r="C197" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" t="s">
+        <v>14</v>
+      </c>
+      <c r="E197" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F197" t="s">
+        <v>15</v>
+      </c>
+      <c r="G197" t="s">
+        <v>16</v>
+      </c>
+      <c r="H197" s="4">
+        <v>31</v>
+      </c>
+      <c r="I197" t="s">
+        <v>17</v>
+      </c>
+      <c r="J197" t="s">
+        <v>142</v>
+      </c>
+      <c r="K197" s="1">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" t="s">
+        <v>419</v>
+      </c>
+      <c r="B198" t="s">
+        <v>420</v>
+      </c>
+      <c r="C198" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F198" t="s">
+        <v>15</v>
+      </c>
+      <c r="G198" t="s">
+        <v>16</v>
+      </c>
+      <c r="H198" s="4">
+        <v>25</v>
+      </c>
+      <c r="I198" t="s">
+        <v>17</v>
+      </c>
+      <c r="J198" t="s">
+        <v>18</v>
+      </c>
+      <c r="K198" s="1">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" t="s">
+        <v>421</v>
+      </c>
+      <c r="B199" t="s">
+        <v>422</v>
+      </c>
+      <c r="C199" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" t="s">
+        <v>14</v>
+      </c>
+      <c r="E199" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F199" t="s">
+        <v>15</v>
+      </c>
+      <c r="G199" t="s">
+        <v>208</v>
+      </c>
+      <c r="H199" s="4">
+        <v>34</v>
+      </c>
+      <c r="I199" t="s">
+        <v>17</v>
+      </c>
+      <c r="J199" t="s">
+        <v>18</v>
+      </c>
+      <c r="K199" s="1">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" t="s">
+        <v>423</v>
+      </c>
+      <c r="B200" t="s">
+        <v>424</v>
+      </c>
+      <c r="C200" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200" t="s">
+        <v>14</v>
+      </c>
+      <c r="E200" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F200" t="s">
+        <v>15</v>
+      </c>
+      <c r="G200" t="s">
+        <v>195</v>
+      </c>
+      <c r="H200" s="4">
+        <v>24</v>
+      </c>
+      <c r="I200" t="s">
+        <v>17</v>
+      </c>
+      <c r="J200" t="s">
+        <v>142</v>
+      </c>
+      <c r="K200" s="1">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" t="s">
+        <v>425</v>
+      </c>
+      <c r="B201" t="s">
+        <v>426</v>
+      </c>
+      <c r="C201" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F201" t="s">
+        <v>15</v>
+      </c>
+      <c r="G201" t="s">
+        <v>195</v>
+      </c>
+      <c r="H201" s="4">
+        <v>32</v>
+      </c>
+      <c r="I201" t="s">
+        <v>17</v>
+      </c>
+      <c r="J201" t="s">
+        <v>142</v>
+      </c>
+      <c r="K201" s="1">
+        <v>45706</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="G1:G192" xr:uid="{60544FB7-22A5-4752-BA5C-F0329FCC1E2A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Metadata/Somali_Accent_DB_Metadata.xlsx
+++ b/Metadata/Somali_Accent_DB_Metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\MI2PEPF000005B4\EXCELCNV\d974c8b0-d1aa-4bef-a02c-0ae81a73f1f0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{234095A6-81C9-4286-89A2-A878FA94F747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8B01D8C-BE54-4DF5-B094-2A870295BA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{1670D249-4C3F-47C1-8C14-12B4933AC961}"/>
   </bookViews>
@@ -38,70 +38,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="5">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="12"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="24"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="36"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="48"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="5">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-    <bk>
-      <rc t="1" v="1"/>
-    </bk>
-    <bk>
-      <rc t="1" v="2"/>
-    </bk>
-    <bk>
-      <rc t="1" v="3"/>
-    </bk>
-    <bk>
-      <rc t="1" v="4"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="432">
   <si>
     <t>Speaker_ID</t>
   </si>
@@ -148,6 +86,9 @@
     <t>18-25</t>
   </si>
   <si>
+    <t>Mogadishu</t>
+  </si>
+  <si>
     <t>Sentence-1</t>
   </si>
   <si>
@@ -166,6 +107,9 @@
     <t>SOM002_sentence1.wav</t>
   </si>
   <si>
+    <t>Hargeisa</t>
+  </si>
+  <si>
     <t>moderate</t>
   </si>
   <si>
@@ -331,6 +275,9 @@
     <t>25-35</t>
   </si>
   <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
     <t>trilingual(English/Somali/Turkish)</t>
   </si>
   <si>
@@ -340,6 +287,9 @@
     <t>SOM028_sentence1.wav</t>
   </si>
   <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
     <t>trilingual(English/Somali/swahili)</t>
   </si>
   <si>
@@ -914,6 +864,9 @@
   </si>
   <si>
     <t>SOM122_sentence1.wav</t>
+  </si>
+  <si>
+    <t>London</t>
   </si>
   <si>
     <t>SOM123</t>
@@ -1879,7 +1832,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1893,6 +1846,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1949,1118 +1903,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-  <types>
-    <type name="_linkedentity2">
-      <keyFlags>
-        <key name="%EntityServiceId">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-        </key>
-        <key name="%EntityCulture">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-        </key>
-        <key name="%EntityId">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-        </key>
-        <key name="%cvi">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-          <flag name="ExcludeFromCalcComparison" value="1"/>
-        </key>
-      </keyFlags>
-    </type>
-    <type name="_linkedentity2core">
-      <keyFlags>
-        <key name="%EntityServiceId">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-        </key>
-        <key name="%EntityCulture">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-        </key>
-        <key name="%EntityId">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-        </key>
-        <key name="%IsRefreshable">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-          <flag name="ExcludeFromCalcComparison" value="1"/>
-        </key>
-        <key name="%ProviderInfo">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-        </key>
-        <key name="%DataProviderExternalLinkLogo">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-        </key>
-        <key name="%DataProviderExternalLink">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-        </key>
-        <key name="%DataRetrievedTime">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-          <flag name="ExcludeFromCalcComparison" value="1"/>
-        </key>
-        <key name="%EntityDomainIdString">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-        </key>
-        <key name="%InfoToolTipLabelNames">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-        </key>
-        <key name="%InfoToolTipLabelValues">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-        </key>
-        <key name="%InfoToolTipLabelValuesType">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-        </key>
-        <key name="%DataProviderString">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-        </key>
-        <key name="%ClassificationId">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-        </key>
-        <key name="%OutdatedReason">
-          <flag name="ShowInCardView" value="0"/>
-          <flag name="ShowInDotNotation" value="0"/>
-          <flag name="ShowInAutoComplete" value="0"/>
-          <flag name="ExcludeFromCalcComparison" value="1"/>
-        </key>
-      </keyFlags>
-    </type>
-    <type name="_webimage">
-      <keyFlags>
-        <key name="WebImageIdentifier">
-          <flag name="ShowInCardView" value="0"/>
-        </key>
-      </keyFlags>
-    </type>
-  </types>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdRichValueWebImage.xml><?xml version="1.0" encoding="utf-8"?>
-<webImagesSrd xmlns="http://schemas.microsoft.com/office/spreadsheetml/2020/richdatawebimage" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <webImageSrd>
-    <address r:id="rId1"/>
-    <moreImagesAddress r:id="rId2"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId3"/>
-    <moreImagesAddress r:id="rId4"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId5"/>
-    <moreImagesAddress r:id="rId6"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId7"/>
-    <moreImagesAddress r:id="rId8"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId9"/>
-    <moreImagesAddress r:id="rId10"/>
-  </webImageSrd>
-</webImagesSrd>
-</file>
-
-<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
-  <a r="1">
-    <v t="r">6</v>
-  </a>
-  <a r="1">
-    <v t="r">18</v>
-  </a>
-  <a r="1">
-    <v t="r">30</v>
-  </a>
-  <a r="1">
-    <v t="r">42</v>
-  </a>
-  <a r="1">
-    <v t="r">55</v>
-  </a>
-  <a r="1">
-    <v t="s">Greenwich Mean Time</v>
-  </a>
-</arrayData>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="62">
-  <rv s="0">
-    <v>536870912</v>
-    <v>Mogadishu</v>
-    <v>6b153fea-d687-ac84-f937-d59d0a5bdaf6</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="0">
-    <v>536870912</v>
-    <v>Banaadir</v>
-    <v>47a94b95-50da-e3cb-c6c9-dd8cba83fba4</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="1">
-    <fb>91</fb>
-    <v>8</v>
-  </rv>
-  <rv s="0">
-    <v>536870912</v>
-    <v>Somalia</v>
-    <v>14f0659c-f28d-2a2c-7272-22ac7398b0ed</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="2">
-    <v>0</v>
-    <v>6</v>
-    <v>0</v>
-    <v>7</v>
-    <v>0</v>
-    <v>Image of Mogadishu</v>
-  </rv>
-  <rv s="1">
-    <fb>2.0391666666666701</fb>
-    <v>9</v>
-  </rv>
-  <rv s="0">
-    <v>805306368</v>
-    <v>Yusuf Hussein Jimaale (Mayor)</v>
-    <v>04de3d46-470b-27d7-f398-e328ff819205</v>
-    <v>en-US</v>
-    <v>Generic</v>
-  </rv>
-  <rv s="3">
-    <v>0</v>
-  </rv>
-  <rv s="4">
-    <v>https://www.bing.com/search?q=mogadishu&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <fb>45.341944444444401</fb>
-    <v>9</v>
-  </rv>
-  <rv s="1">
-    <fb>2120000</fb>
-    <v>8</v>
-  </rv>
-  <rv s="5">
-    <v>#VALUE!</v>
-    <v>en-US</v>
-    <v>6b153fea-d687-ac84-f937-d59d0a5bdaf6</v>
-    <v>536870912</v>
-    <v>1</v>
-    <v>1</v>
-    <v>2</v>
-    <v>Mogadishu</v>
-    <v>4</v>
-    <v>5</v>
-    <v>Map</v>
-    <v>6</v>
-    <v>7</v>
-    <v>1</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Mogadishu, locally known as Xamar or Hamar, is the capital and most populous city of Somalia. The city has served as an important port connecting traders across the Indian Ocean for millennia, and has an estimated urban population of 2,610,483. ...</v>
-    <v>4</v>
-    <v>5</v>
-    <v>7</v>
-    <v>8</v>
-    <v>9</v>
-    <v>Mogadishu</v>
-    <v>10</v>
-    <v>Mogadishu</v>
-    <v>mdp/vdpid/7445650460117041153</v>
-  </rv>
-  <rv s="0">
-    <v>536870912</v>
-    <v>Hargeisa</v>
-    <v>32e3b46b-dc09-d15f-f1c3-f766c5fbf83c</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="0">
-    <v>536870912</v>
-    <v>Maroodi Jeeh</v>
-    <v>b0c29435-2106-e994-2ebd-c00b3a92276a</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="1">
-    <fb>33</fb>
-    <v>8</v>
-  </rv>
-  <rv s="0">
-    <v>536870912</v>
-    <v>Somaliland</v>
-    <v>c7ce2d76-6e72-4ca2-f1bb-74cb77e07d6a</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="2">
-    <v>1</v>
-    <v>6</v>
-    <v>10</v>
-    <v>7</v>
-    <v>0</v>
-    <v>Image of Hargeisa</v>
-  </rv>
-  <rv s="1">
-    <fb>9.5655560000000008</fb>
-    <v>9</v>
-  </rv>
-  <rv s="0">
-    <v>805306368</v>
-    <v>Abdikarim Ahmed Mooge (Mayor)</v>
-    <v>a248bd8f-0f72-9601-15c2-95b406388a8b</v>
-    <v>en-US</v>
-    <v>Generic</v>
-  </rv>
-  <rv s="3">
-    <v>1</v>
-  </rv>
-  <rv s="4">
-    <v>https://www.bing.com/search?q=hargeisa&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <fb>44.060555999999998</fb>
-    <v>9</v>
-  </rv>
-  <rv s="1">
-    <fb>760000</fb>
-    <v>8</v>
-  </rv>
-  <rv s="5">
-    <v>#VALUE!</v>
-    <v>en-US</v>
-    <v>32e3b46b-dc09-d15f-f1c3-f766c5fbf83c</v>
-    <v>536870912</v>
-    <v>1</v>
-    <v>11</v>
-    <v>2</v>
-    <v>Hargeisa</v>
-    <v>4</v>
-    <v>5</v>
-    <v>Map</v>
-    <v>6</v>
-    <v>7</v>
-    <v>13</v>
-    <v>14</v>
-    <v>15</v>
-    <v>Hargeisa is the largest and capital city of the self-declared Republic of Somaliland, a de facto sovereign state in the Horn of Africa, which is still considered internationally to be part of Somalia. It is also the regional capital of the ...</v>
-    <v>16</v>
-    <v>17</v>
-    <v>19</v>
-    <v>20</v>
-    <v>21</v>
-    <v>Hargeisa</v>
-    <v>22</v>
-    <v>Hargeisa</v>
-    <v>mdp/vdpid/7344119322320568321</v>
-  </rv>
-  <rv s="0">
-    <v>536870912</v>
-    <v>Istanbul</v>
-    <v>fda0585c-e197-df02-9869-433da5f8d140</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="0">
-    <v>536870912</v>
-    <v>Istanbul Province</v>
-    <v>aa3276af-e94f-620a-5fb3-4ee74dc3cf72</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="1">
-    <fb>5343</fb>
-    <v>8</v>
-  </rv>
-  <rv s="0">
-    <v>536870912</v>
-    <v>Ottoman Empire</v>
-    <v>0c338db5-c8ae-34d9-8c36-b66fbb5a1277</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="2">
-    <v>2</v>
-    <v>6</v>
-    <v>12</v>
-    <v>7</v>
-    <v>0</v>
-    <v>Image of Istanbul</v>
-  </rv>
-  <rv s="1">
-    <fb>41.01</fb>
-    <v>9</v>
-  </rv>
-  <rv s="0">
-    <v>805306368</v>
-    <v>Ekrem İmamoğlu (Mayor)</v>
-    <v>ff38a013-97bc-5896-6f0d-896241a1c64c</v>
-    <v>en-US</v>
-    <v>Generic</v>
-  </rv>
-  <rv s="3">
-    <v>2</v>
-  </rv>
-  <rv s="4">
-    <v>https://www.bing.com/search?q=istanbul+turkey&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <fb>28.960277777778</fb>
-    <v>9</v>
-  </rv>
-  <rv s="1">
-    <fb>15462452</fb>
-    <v>8</v>
-  </rv>
-  <rv s="5">
-    <v>#VALUE!</v>
-    <v>en-US</v>
-    <v>fda0585c-e197-df02-9869-433da5f8d140</v>
-    <v>536870912</v>
-    <v>1</v>
-    <v>13</v>
-    <v>2</v>
-    <v>Istanbul</v>
-    <v>4</v>
-    <v>5</v>
-    <v>Map</v>
-    <v>6</v>
-    <v>14</v>
-    <v>25</v>
-    <v>26</v>
-    <v>27</v>
-    <v>Istanbul, formerly known as Constantinople, is the largest city in Turkey, serving as the country's economic, cultural and historic hub. The city straddles the Bosporus strait, lying in both Europe and Asia, and has a population of over 15 ...</v>
-    <v>28</v>
-    <v>29</v>
-    <v>31</v>
-    <v>32</v>
-    <v>33</v>
-    <v>Istanbul</v>
-    <v>34</v>
-    <v>Istanbul</v>
-    <v>mdp/vdpid/7245290133887385609</v>
-  </rv>
-  <rv s="0">
-    <v>536870912</v>
-    <v>Nairobi</v>
-    <v>df1ed42e-a684-844f-342a-4e9bec9a3e99</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="0">
-    <v>536870912</v>
-    <v>Nairobi City County</v>
-    <v>5f5f4291-8c2a-dd93-a743-7cd01a7277d4</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="1">
-    <fb>696</fb>
-    <v>8</v>
-  </rv>
-  <rv s="0">
-    <v>536870912</v>
-    <v>Kenya</v>
-    <v>8ee43333-b344-289c-d8b1-5abf5e6a5995</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="2">
-    <v>3</v>
-    <v>6</v>
-    <v>16</v>
-    <v>7</v>
-    <v>0</v>
-    <v>Image of Nairobi</v>
-  </rv>
-  <rv s="1">
-    <fb>-1.2863888888888999</fb>
-    <v>9</v>
-  </rv>
-  <rv s="0">
-    <v>805306368</v>
-    <v>Johnson Sakaja (Governor)</v>
-    <v>49ea9ee4-d456-7d07-b010-13d7485b62e8</v>
-    <v>en-US</v>
-    <v>Generic</v>
-  </rv>
-  <rv s="3">
-    <v>3</v>
-  </rv>
-  <rv s="4">
-    <v>https://www.bing.com/search?q=nairobi&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <fb>36.817222222222</fb>
-    <v>9</v>
-  </rv>
-  <rv s="1">
-    <fb>5545000</fb>
-    <v>8</v>
-  </rv>
-  <rv s="6">
-    <v>#VALUE!</v>
-    <v>en-US</v>
-    <v>df1ed42e-a684-844f-342a-4e9bec9a3e99</v>
-    <v>536870912</v>
-    <v>1</v>
-    <v>17</v>
-    <v>18</v>
-    <v>Nairobi</v>
-    <v>4</v>
-    <v>5</v>
-    <v>Map</v>
-    <v>6</v>
-    <v>19</v>
-    <v>37</v>
-    <v>37</v>
-    <v>38</v>
-    <v>39</v>
-    <v>Nairobi is the capital and largest city of Kenya. The name is derived from the Maasai phrase Enkare Nairobi, which translates to 'place of cool waters', a reference to the Nairobi River which flows through the city. The city proper had a ...</v>
-    <v>40</v>
-    <v>41</v>
-    <v>43</v>
-    <v>44</v>
-    <v>45</v>
-    <v>Nairobi</v>
-    <v>46</v>
-    <v>Nairobi</v>
-    <v>mdp/vdpid/8116144502579658754</v>
-  </rv>
-  <rv s="0">
-    <v>536870912</v>
-    <v>London</v>
-    <v>8e0ba7b6-4225-fa8a-6369-1b5294e602a5</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="0">
-    <v>536870912</v>
-    <v>England</v>
-    <v>280d39e8-7217-6863-6980-a8c20c211c89</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="0">
-    <v>536870912</v>
-    <v>Greater London</v>
-    <v>2ba8a441-178c-f2c0-26cb-a4b260b8c806</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="1">
-    <fb>1572</fb>
-    <v>8</v>
-  </rv>
-  <rv s="0">
-    <v>536870912</v>
-    <v>United Kingdom</v>
-    <v>b1a5155a-6bb2-4646-8f7c-3e6b3a53c831</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="2">
-    <v>4</v>
-    <v>6</v>
-    <v>20</v>
-    <v>7</v>
-    <v>0</v>
-    <v>Image of London</v>
-  </rv>
-  <rv s="1">
-    <fb>51.507222222221998</fb>
-    <v>9</v>
-  </rv>
-  <rv s="0">
-    <v>805306368</v>
-    <v>Sadiq Khan (Mayor)</v>
-    <v>d7862dc2-4c03-1dc8-3412-7fe03041fdcb</v>
-    <v>en-US</v>
-    <v>Generic</v>
-  </rv>
-  <rv s="3">
-    <v>4</v>
-  </rv>
-  <rv s="4">
-    <v>https://www.bing.com/search?q=london+england&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <fb>-0.1275</fb>
-    <v>9</v>
-  </rv>
-  <rv s="1">
-    <fb>8799728</fb>
-    <v>8</v>
-  </rv>
-  <rv s="3">
-    <v>5</v>
-  </rv>
-  <rv s="7">
-    <v>#VALUE!</v>
-    <v>en-US</v>
-    <v>8e0ba7b6-4225-fa8a-6369-1b5294e602a5</v>
-    <v>536870912</v>
-    <v>1</v>
-    <v>21</v>
-    <v>22</v>
-    <v>London</v>
-    <v>4</v>
-    <v>5</v>
-    <v>Map</v>
-    <v>6</v>
-    <v>23</v>
-    <v>49</v>
-    <v>50</v>
-    <v>51</v>
-    <v>52</v>
-    <v>London is the capital and largest city of England, and the United Kingdom, with a population of around 8.8 million, and the largest city in Western Europe by metropolitan area, with a population of 14,800,000. It stands on the River Thames in ...</v>
-    <v>53</v>
-    <v>54</v>
-    <v>56</v>
-    <v>57</v>
-    <v>58</v>
-    <v>London</v>
-    <v>59</v>
-    <v>60</v>
-    <v>London</v>
-    <v>mdp/vdpid/5471798185326280713</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
-  <s t="_linkedentity2">
-    <k n="%EntityServiceId" t="i"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityCulture" t="s"/>
-    <k n="_Icon" t="s"/>
-  </s>
-  <s t="_formattednumber">
-    <k n="_Format" t="spb"/>
-  </s>
-  <s t="_webimage">
-    <k n="WebImageIdentifier" t="i"/>
-    <k n="_Provider" t="spb"/>
-    <k n="Attribution" t="spb"/>
-    <k n="CalcOrigin" t="i"/>
-    <k n="ComputedImage" t="b"/>
-    <k n="Text" t="s"/>
-  </s>
-  <s t="_array">
-    <k n="array" t="a"/>
-  </s>
-  <s t="_hyperlink">
-    <k n="Address" t="s"/>
-    <k n="Text" t="s"/>
-  </s>
-  <s t="_linkedentity2core">
-    <k n="_CRID" t="e"/>
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId" t="i"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="_Attribution" t="spb"/>
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_Provider" t="spb"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="Admin Division 1 (State/province/other)" t="r"/>
-    <k n="Area" t="r"/>
-    <k n="Country/region" t="r"/>
-    <k n="Description" t="s"/>
-    <k n="Image" t="r"/>
-    <k n="Latitude" t="r"/>
-    <k n="Leader(s)" t="r"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Longitude" t="r"/>
-    <k n="Name" t="s"/>
-    <k n="Population" t="r"/>
-    <k n="UniqueName" t="s"/>
-    <k n="VDPID/VSID" t="s"/>
-  </s>
-  <s t="_linkedentity2core">
-    <k n="_CRID" t="e"/>
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId" t="i"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="_Attribution" t="spb"/>
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_Provider" t="spb"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="Admin Division 1 (State/province/other)" t="r"/>
-    <k n="Admin Division 2 (County/district/other)" t="r"/>
-    <k n="Area" t="r"/>
-    <k n="Country/region" t="r"/>
-    <k n="Description" t="s"/>
-    <k n="Image" t="r"/>
-    <k n="Latitude" t="r"/>
-    <k n="Leader(s)" t="r"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Longitude" t="r"/>
-    <k n="Name" t="s"/>
-    <k n="Population" t="r"/>
-    <k n="UniqueName" t="s"/>
-    <k n="VDPID/VSID" t="s"/>
-  </s>
-  <s t="_linkedentity2core">
-    <k n="_CRID" t="e"/>
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId" t="i"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="_Attribution" t="spb"/>
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_Provider" t="spb"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="Admin Division 1 (State/province/other)" t="r"/>
-    <k n="Admin Division 2 (County/district/other)" t="r"/>
-    <k n="Area" t="r"/>
-    <k n="Country/region" t="r"/>
-    <k n="Description" t="s"/>
-    <k n="Image" t="r"/>
-    <k n="Latitude" t="r"/>
-    <k n="Leader(s)" t="r"/>
-    <k n="LearnMoreOnLink" t="r"/>
-    <k n="Longitude" t="r"/>
-    <k n="Name" t="s"/>
-    <k n="Population" t="r"/>
-    <k n="Time zone(s)" t="r"/>
-    <k n="UniqueName" t="s"/>
-    <k n="VDPID/VSID" t="s"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
-<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="3">
-    <a count="25">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">_Provider</v>
-      <v t="s">_Attribution</v>
-      <v t="s">_Display</v>
-      <v t="s">Name</v>
-      <v t="s">_Format</v>
-      <v t="s">Admin Division 1 (State/province/other)</v>
-      <v t="s">Country/region</v>
-      <v t="s">Leader(s)</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Population</v>
-      <v t="s">Area</v>
-      <v t="s">Latitude</v>
-      <v t="s">Longitude</v>
-      <v t="s">_Flags</v>
-      <v t="s">VDPID/VSID</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">Image</v>
-      <v t="s">Description</v>
-    </a>
-    <a count="26">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">_Provider</v>
-      <v t="s">_Attribution</v>
-      <v t="s">_Display</v>
-      <v t="s">Name</v>
-      <v t="s">_Format</v>
-      <v t="s">Admin Division 2 (County/district/other)</v>
-      <v t="s">Admin Division 1 (State/province/other)</v>
-      <v t="s">Country/region</v>
-      <v t="s">Leader(s)</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Population</v>
-      <v t="s">Area</v>
-      <v t="s">Latitude</v>
-      <v t="s">Longitude</v>
-      <v t="s">_Flags</v>
-      <v t="s">VDPID/VSID</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">Image</v>
-      <v t="s">Description</v>
-    </a>
-    <a count="27">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">_Provider</v>
-      <v t="s">_Attribution</v>
-      <v t="s">_Display</v>
-      <v t="s">Name</v>
-      <v t="s">_Format</v>
-      <v t="s">Admin Division 2 (County/district/other)</v>
-      <v t="s">Admin Division 1 (State/province/other)</v>
-      <v t="s">Country/region</v>
-      <v t="s">Leader(s)</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Population</v>
-      <v t="s">Area</v>
-      <v t="s">Latitude</v>
-      <v t="s">Longitude</v>
-      <v t="s">Time zone(s)</v>
-      <v t="s">_Flags</v>
-      <v t="s">VDPID/VSID</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">LearnMoreOnLink</v>
-      <v t="s">Image</v>
-      <v t="s">Description</v>
-    </a>
-  </spbArrays>
-  <spbData count="24">
-    <spb s="0">
-      <v xml:space="preserve">Wikipedia	</v>
-      <v xml:space="preserve">CC BY-SA 3.0	</v>
-      <v xml:space="preserve">https://en.wikipedia.org/wiki/Mogadishu	</v>
-      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
-    </spb>
-    <spb s="1">
-      <v>0</v>
-      <v>0</v>
-      <v>0</v>
-      <v>0</v>
-      <v>0</v>
-      <v>0</v>
-      <v>0</v>
-      <v>0</v>
-      <v>0</v>
-    </spb>
-    <spb s="2">
-      <v>0</v>
-      <v>Name</v>
-      <v>LearnMoreOnLink</v>
-    </spb>
-    <spb s="3">
-      <v>0</v>
-      <v>0</v>
-      <v>0</v>
-    </spb>
-    <spb s="4">
-      <v>3</v>
-      <v>3</v>
-      <v>3</v>
-    </spb>
-    <spb s="5">
-      <v>1</v>
-      <v>2</v>
-    </spb>
-    <spb s="6">
-      <v>https://www.bing.com</v>
-      <v>https://www.bing.com/th?id=Ga%5Cbing_yt.png&amp;w=100&amp;h=40&amp;c=0&amp;pid=0.1</v>
-      <v>Powered by Bing</v>
-    </spb>
-    <spb s="7">
-      <v>square km</v>
-      <v>2015</v>
-    </spb>
-    <spb s="8">
-      <v>3</v>
-    </spb>
-    <spb s="8">
-      <v>4</v>
-    </spb>
-    <spb s="0">
-      <v xml:space="preserve">Wikipedia	</v>
-      <v xml:space="preserve">CC BY-SA 3.0	</v>
-      <v xml:space="preserve">https://en.wikipedia.org/wiki/Hargeisa	</v>
-      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
-    </spb>
-    <spb s="1">
-      <v>10</v>
-      <v>10</v>
-      <v>10</v>
-      <v>10</v>
-      <v>10</v>
-      <v>10</v>
-      <v>10</v>
-      <v>10</v>
-      <v>10</v>
-    </spb>
-    <spb s="0">
-      <v xml:space="preserve">Wikipedia	</v>
-      <v xml:space="preserve">CC BY-SA 3.0	</v>
-      <v xml:space="preserve">https://en.wikipedia.org/wiki/Istanbul	</v>
-      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
-    </spb>
-    <spb s="1">
-      <v>12</v>
-      <v>12</v>
-      <v>12</v>
-      <v>12</v>
-      <v>12</v>
-      <v>12</v>
-      <v>12</v>
-      <v>12</v>
-      <v>12</v>
-    </spb>
-    <spb s="7">
-      <v>square km</v>
-      <v>2020</v>
-    </spb>
-    <spb s="0">
-      <v xml:space="preserve">Wikipedia	</v>
-      <v xml:space="preserve">CC-BY-SA	</v>
-      <v xml:space="preserve">http://en.wikipedia.org/wiki/Nairobi	</v>
-      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
-    </spb>
-    <spb s="0">
-      <v xml:space="preserve">Wikipedia	</v>
-      <v xml:space="preserve">CC BY-SA 3.0	</v>
-      <v xml:space="preserve">https://en.wikipedia.org/wiki/Nairobi	</v>
-      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
-    </spb>
-    <spb s="9">
-      <v>15</v>
-      <v>16</v>
-      <v>16</v>
-      <v>16</v>
-      <v>16</v>
-      <v>16</v>
-      <v>16</v>
-      <v>16</v>
-      <v>16</v>
-      <v>16</v>
-    </spb>
-    <spb s="2">
-      <v>1</v>
-      <v>Name</v>
-      <v>LearnMoreOnLink</v>
-    </spb>
-    <spb s="7">
-      <v>square km</v>
-      <v>2016</v>
-    </spb>
-    <spb s="0">
-      <v xml:space="preserve">Wikipedia	</v>
-      <v xml:space="preserve">CC BY-SA 3.0	</v>
-      <v xml:space="preserve">https://en.wikipedia.org/wiki/London	</v>
-      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
-    </spb>
-    <spb s="9">
-      <v>20</v>
-      <v>20</v>
-      <v>20</v>
-      <v>20</v>
-      <v>20</v>
-      <v>20</v>
-      <v>20</v>
-      <v>20</v>
-      <v>20</v>
-      <v>20</v>
-    </spb>
-    <spb s="2">
-      <v>2</v>
-      <v>Name</v>
-      <v>LearnMoreOnLink</v>
-    </spb>
-    <spb s="7">
-      <v>square km</v>
-      <v>2021</v>
-    </spb>
-  </spbData>
-</supportingPropertyBags>
-</file>
-
-<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="10">
-  <s>
-    <k n="SourceText" t="s"/>
-    <k n="LicenseText" t="s"/>
-    <k n="SourceAddress" t="s"/>
-    <k n="LicenseAddress" t="s"/>
-  </s>
-  <s>
-    <k n="Area" t="spb"/>
-    <k n="Name" t="spb"/>
-    <k n="Latitude" t="spb"/>
-    <k n="Longitude" t="spb"/>
-    <k n="Population" t="spb"/>
-    <k n="UniqueName" t="spb"/>
-    <k n="Description" t="spb"/>
-    <k n="Country/region" t="spb"/>
-    <k n="Admin Division 1 (State/province/other)" t="spb"/>
-  </s>
-  <s>
-    <k n="^Order" t="spba"/>
-    <k n="TitleProperty" t="s"/>
-    <k n="SubTitleProperty" t="s"/>
-  </s>
-  <s>
-    <k n="ShowInCardView" t="b"/>
-    <k n="ShowInDotNotation" t="b"/>
-    <k n="ShowInAutoComplete" t="b"/>
-  </s>
-  <s>
-    <k n="UniqueName" t="spb"/>
-    <k n="VDPID/VSID" t="spb"/>
-    <k n="LearnMoreOnLink" t="spb"/>
-  </s>
-  <s>
-    <k n="Name" t="i"/>
-    <k n="Image" t="i"/>
-  </s>
-  <s>
-    <k n="link" t="s"/>
-    <k n="logo" t="s"/>
-    <k n="name" t="s"/>
-  </s>
-  <s>
-    <k n="Area" t="s"/>
-    <k n="Population" t="s"/>
-  </s>
-  <s>
-    <k n="_Self" t="i"/>
-  </s>
-  <s>
-    <k n="Area" t="spb"/>
-    <k n="Name" t="spb"/>
-    <k n="Latitude" t="spb"/>
-    <k n="Longitude" t="spb"/>
-    <k n="Population" t="spb"/>
-    <k n="UniqueName" t="spb"/>
-    <k n="Description" t="spb"/>
-    <k n="Country/region" t="spb"/>
-    <k n="Admin Division 1 (State/province/other)" t="spb"/>
-    <k n="Admin Division 2 (County/district/other)" t="spb"/>
-  </s>
-</spbStructures>
-</file>
-
-<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
-<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <dxfs count="2">
-    <x:dxf>
-      <x:numFmt numFmtId="3" formatCode="#,##0"/>
-    </x:dxf>
-    <x:dxf>
-      <x:numFmt numFmtId="0" formatCode="General"/>
-    </x:dxf>
-  </dxfs>
-  <richProperties>
-    <rPr n="IsTitleField" t="b"/>
-    <rPr n="IsHeroField" t="b"/>
-    <rPr n="NumberFormat" t="s"/>
-  </richProperties>
-  <richStyles>
-    <rSty>
-      <rpv i="0">1</rpv>
-    </rSty>
-    <rSty>
-      <rpv i="1">1</rpv>
-    </rSty>
-    <rSty dxfid="0">
-      <rpv i="2">#,##0</rpv>
-    </rSty>
-    <rSty dxfid="1">
-      <rpv i="2">0.0000</rpv>
-    </rSty>
-  </richStyles>
-</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3362,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60544FB7-22A5-4752-BA5C-F0329FCC1E2A}">
   <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E198" workbookViewId="0">
-      <selection activeCell="J202" sqref="J202"/>
+    <sheetView tabSelected="1" topLeftCell="B143" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3429,23 +2271,23 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4">
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1">
         <v>45686</v>
@@ -3453,10 +2295,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -3464,23 +2306,23 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="e" vm="2">
-        <v>#VALUE!</v>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4">
         <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="1">
         <v>45686</v>
@@ -3488,34 +2330,34 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4">
         <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" s="1">
         <v>45686</v>
@@ -3523,10 +2365,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -3534,23 +2376,23 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="4">
         <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" s="1">
         <v>45686</v>
@@ -3558,10 +2400,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -3569,23 +2411,23 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6" s="4">
         <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6" s="1">
         <v>45686</v>
@@ -3593,10 +2435,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -3604,23 +2446,23 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="4">
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7" s="1">
         <v>45686</v>
@@ -3628,34 +2470,34 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="4">
         <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8" s="1">
         <v>45686</v>
@@ -3663,10 +2505,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -3674,23 +2516,23 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" s="4">
         <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="1">
         <v>45686</v>
@@ -3698,10 +2540,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -3709,23 +2551,23 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H10" s="4">
         <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" s="1">
         <v>45687</v>
@@ -3733,34 +2575,34 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" s="4">
         <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" s="1">
         <v>45687</v>
@@ -3768,34 +2610,34 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" s="4">
         <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="1">
         <v>45687</v>
@@ -3803,34 +2645,34 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" s="4">
         <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K13" s="1">
         <v>45687</v>
@@ -3838,34 +2680,34 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E14" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H14" s="4">
         <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" s="1">
         <v>45687</v>
@@ -3873,34 +2715,34 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H15" s="4">
         <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="1">
         <v>45687</v>
@@ -3908,34 +2750,34 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E16" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H16" s="4">
         <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K16" s="1">
         <v>45687</v>
@@ -3943,34 +2785,34 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E17" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H17" s="4">
         <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K17" s="1">
         <v>45687</v>
@@ -3978,10 +2820,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -3989,23 +2831,23 @@
       <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="4">
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K18" s="1">
         <v>45687</v>
@@ -4013,34 +2855,34 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H19" s="4">
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K19" s="1">
         <v>45687</v>
@@ -4048,34 +2890,34 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" t="e" vm="2">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H20" s="4">
         <v>30</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K20" s="1">
         <v>45687</v>
@@ -4083,34 +2925,34 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="E21" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E21" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H21" s="4">
         <v>30</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K21" s="1">
         <v>45687</v>
@@ -4118,10 +2960,10 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -4129,23 +2971,23 @@
       <c r="D22" t="s">
         <v>14</v>
       </c>
-      <c r="E22" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E22" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H22" s="4">
         <v>34</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K22" s="1">
         <v>45687</v>
@@ -4153,34 +2995,34 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
       </c>
-      <c r="E23" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E23" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H23" s="4">
         <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K23" s="1">
         <v>45688</v>
@@ -4188,10 +3030,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -4199,23 +3041,23 @@
       <c r="D24" t="s">
         <v>14</v>
       </c>
-      <c r="E24" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E24" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H24" s="4">
         <v>35</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K24" s="1">
         <v>45688</v>
@@ -4223,10 +3065,10 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -4234,23 +3076,23 @@
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E25" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E25" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H25" s="4">
         <v>30</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K25" s="1">
         <v>45688</v>
@@ -4258,10 +3100,10 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -4269,23 +3111,23 @@
       <c r="D26" t="s">
         <v>14</v>
       </c>
-      <c r="E26" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E26" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H26" s="4">
         <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K26" s="1">
         <v>45688</v>
@@ -4293,10 +3135,10 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -4304,23 +3146,23 @@
       <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="E27" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E27" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H27" s="4">
         <v>36</v>
       </c>
       <c r="I27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K27" s="1">
         <v>45688</v>
@@ -4328,34 +3170,34 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" t="e" vm="3">
-        <v>#VALUE!</v>
+        <v>77</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H28" s="4">
         <v>35</v>
       </c>
       <c r="I28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K28" s="1">
         <v>45688</v>
@@ -4363,10 +3205,10 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -4374,23 +3216,23 @@
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E29" t="e" vm="4">
-        <v>#VALUE!</v>
+      <c r="E29" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H29" s="4">
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K29" s="1">
         <v>45688</v>
@@ -4398,10 +3240,10 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -4409,23 +3251,23 @@
       <c r="D30" t="s">
         <v>14</v>
       </c>
-      <c r="E30" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E30" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H30" s="4">
         <v>33</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K30" s="1">
         <v>45688</v>
@@ -4433,34 +3275,34 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="E31" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E31" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H31" s="4">
         <v>41</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K31" s="1">
         <v>45688</v>
@@ -4468,34 +3310,34 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
       </c>
-      <c r="E32" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E32" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H32" s="4">
         <v>45</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K32" s="1">
         <v>45688</v>
@@ -4503,34 +3345,34 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
       </c>
-      <c r="E33" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E33" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H33" s="4">
         <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K33" s="1">
         <v>45688</v>
@@ -4538,10 +3380,10 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -4549,23 +3391,23 @@
       <c r="D34" t="s">
         <v>14</v>
       </c>
-      <c r="E34" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E34" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H34" s="4">
         <v>35.297619047619101</v>
       </c>
       <c r="I34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K34" s="1">
         <v>45688</v>
@@ -4573,34 +3415,34 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>77</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H35" s="4">
         <v>35.535714285714299</v>
       </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K35" s="1">
         <v>45688</v>
@@ -4608,34 +3450,34 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H36" s="4">
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K36" s="1">
         <v>45688</v>
@@ -4643,10 +3485,10 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -4654,23 +3496,23 @@
       <c r="D37" t="s">
         <v>14</v>
       </c>
-      <c r="E37" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E37" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H37" s="4">
         <v>34</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K37" s="1">
         <v>45688</v>
@@ -4678,34 +3520,34 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H38" s="4">
         <v>35</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K38" s="1">
         <v>45688</v>
@@ -4713,34 +3555,34 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H39" s="4">
         <v>50</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K39" s="1">
         <v>45688</v>
@@ -4748,34 +3590,34 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="E40" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E40" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H40" s="4">
         <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K40" s="1">
         <v>45688</v>
@@ -4783,34 +3625,34 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
       </c>
-      <c r="E41" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E41" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H41" s="4">
         <v>33</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K41" s="1">
         <v>45688</v>
@@ -4818,34 +3660,34 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
       </c>
-      <c r="E42" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E42" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H42" s="4">
         <v>28</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K42" s="1">
         <v>45689</v>
@@ -4853,10 +3695,10 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -4864,23 +3706,23 @@
       <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="E43" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E43" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H43" s="4">
         <v>33</v>
       </c>
       <c r="I43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K43" s="1">
         <v>45689</v>
@@ -4888,34 +3730,34 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
-      <c r="E44" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E44" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H44" s="4">
         <v>37</v>
       </c>
       <c r="I44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K44" s="1">
         <v>45689</v>
@@ -4923,34 +3765,34 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
       </c>
-      <c r="E45" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E45" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H45" s="4">
         <v>52</v>
       </c>
       <c r="I45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K45" s="1">
         <v>45689</v>
@@ -4958,34 +3800,34 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
       </c>
-      <c r="E46" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E46" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H46" s="4">
         <v>32</v>
       </c>
       <c r="I46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K46" s="1">
         <v>45689</v>
@@ -4993,34 +3835,34 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H47" s="4">
         <v>35</v>
       </c>
       <c r="I47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K47" s="1">
         <v>45689</v>
@@ -5028,10 +3870,10 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -5039,23 +3881,23 @@
       <c r="D48" t="s">
         <v>14</v>
       </c>
-      <c r="E48" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E48" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H48" s="4">
         <v>32</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K48" s="1">
         <v>45689</v>
@@ -5063,10 +3905,10 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -5074,23 +3916,23 @@
       <c r="D49" t="s">
         <v>14</v>
       </c>
-      <c r="E49" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E49" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H49" s="4">
         <v>34</v>
       </c>
       <c r="I49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K49" s="1">
         <v>45689</v>
@@ -5098,34 +3940,34 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
       </c>
-      <c r="E50" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E50" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H50" s="4">
         <v>32</v>
       </c>
       <c r="I50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K50" s="1">
         <v>45689</v>
@@ -5133,10 +3975,10 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -5144,23 +3986,23 @@
       <c r="D51" t="s">
         <v>14</v>
       </c>
-      <c r="E51" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E51" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H51" s="4">
         <v>37</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K51" s="1">
         <v>45690</v>
@@ -5168,34 +4010,34 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
       </c>
-      <c r="E52" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E52" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H52" s="4">
         <v>35</v>
       </c>
       <c r="I52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K52" s="1">
         <v>45690</v>
@@ -5203,34 +4045,34 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
-      </c>
-      <c r="E53" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H53" s="4">
         <v>31</v>
       </c>
       <c r="I53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K53" s="1">
         <v>45690</v>
@@ -5238,10 +4080,10 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -5249,23 +4091,23 @@
       <c r="D54" t="s">
         <v>14</v>
       </c>
-      <c r="E54" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E54" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H54" s="4">
         <v>29</v>
       </c>
       <c r="I54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K54" s="1">
         <v>45690</v>
@@ -5273,34 +4115,34 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H55" s="4">
         <v>32</v>
       </c>
       <c r="I55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K55" s="1">
         <v>45690</v>
@@ -5308,10 +4150,10 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -5319,23 +4161,23 @@
       <c r="D56" t="s">
         <v>14</v>
       </c>
-      <c r="E56" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E56" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H56" s="4">
         <v>33</v>
       </c>
       <c r="I56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K56" s="1">
         <v>45690</v>
@@ -5343,34 +4185,34 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
       </c>
-      <c r="E57" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E57" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H57" s="4">
         <v>44</v>
       </c>
       <c r="I57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K57" s="1">
         <v>45690</v>
@@ -5378,10 +4220,10 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -5389,23 +4231,23 @@
       <c r="D58" t="s">
         <v>14</v>
       </c>
-      <c r="E58" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E58" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H58" s="4">
         <v>31</v>
       </c>
       <c r="I58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K58" s="1">
         <v>45690</v>
@@ -5413,10 +4255,10 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -5424,23 +4266,23 @@
       <c r="D59" t="s">
         <v>14</v>
       </c>
-      <c r="E59" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E59" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H59" s="4">
         <v>35</v>
       </c>
       <c r="I59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K59" s="1">
         <v>45690</v>
@@ -5448,34 +4290,34 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
       </c>
-      <c r="E60" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E60" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H60" s="4">
         <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K60" s="1">
         <v>45690</v>
@@ -5483,10 +4325,10 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -5494,23 +4336,23 @@
       <c r="D61" t="s">
         <v>14</v>
       </c>
-      <c r="E61" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E61" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H61" s="4">
         <v>30</v>
       </c>
       <c r="I61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J61" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K61" s="1">
         <v>45690</v>
@@ -5518,10 +4360,10 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -5529,23 +4371,23 @@
       <c r="D62" t="s">
         <v>14</v>
       </c>
-      <c r="E62" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E62" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H62" s="4">
         <v>39</v>
       </c>
       <c r="I62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J62" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K62" s="1">
         <v>45691</v>
@@ -5553,34 +4395,34 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
-      </c>
-      <c r="E63" t="e" vm="4">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H63" s="4">
         <v>36</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J63" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K63" s="1">
         <v>45691</v>
@@ -5588,34 +4430,34 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H64" s="4">
         <v>34</v>
       </c>
       <c r="I64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J64" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K64" s="1">
         <v>45691</v>
@@ -5623,34 +4465,34 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
       </c>
-      <c r="E65" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E65" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H65" s="4">
         <v>32</v>
       </c>
       <c r="I65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K65" s="1">
         <v>45691</v>
@@ -5658,34 +4500,34 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
       </c>
-      <c r="E66" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E66" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H66" s="4">
         <v>32</v>
       </c>
       <c r="I66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J66" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K66" s="1">
         <v>45691</v>
@@ -5693,10 +4535,10 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
@@ -5704,23 +4546,23 @@
       <c r="D67" t="s">
         <v>14</v>
       </c>
-      <c r="E67" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E67" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H67" s="4">
         <v>25</v>
       </c>
       <c r="I67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K67" s="1">
         <v>45691</v>
@@ -5728,10 +4570,10 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -5739,23 +4581,23 @@
       <c r="D68" t="s">
         <v>14</v>
       </c>
-      <c r="E68" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E68" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H68" s="4">
         <v>25</v>
       </c>
       <c r="I68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J68" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K68" s="1">
         <v>45691</v>
@@ -5763,34 +4605,34 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
-      </c>
-      <c r="E69" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H69" s="4">
         <v>44</v>
       </c>
       <c r="I69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J69" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K69" s="1">
         <v>45691</v>
@@ -5798,10 +4640,10 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -5809,23 +4651,23 @@
       <c r="D70" t="s">
         <v>14</v>
       </c>
-      <c r="E70" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E70" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H70" s="4">
         <v>34</v>
       </c>
       <c r="I70" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K70" s="1">
         <v>45691</v>
@@ -5833,34 +4675,34 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E71" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H71" s="4">
         <v>37</v>
       </c>
       <c r="I71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K71" s="1">
         <v>45691</v>
@@ -5868,34 +4710,34 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
       </c>
-      <c r="E72" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E72" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H72" s="4">
         <v>27</v>
       </c>
       <c r="I72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J72" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K72" s="1">
         <v>45692</v>
@@ -5903,10 +4745,10 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -5914,23 +4756,23 @@
       <c r="D73" t="s">
         <v>14</v>
       </c>
-      <c r="E73" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E73" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H73" s="4">
         <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J73" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K73" s="1">
         <v>45692</v>
@@ -5938,34 +4780,34 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
       </c>
-      <c r="E74" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E74" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G74" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H74" s="4">
         <v>32</v>
       </c>
       <c r="I74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K74" s="1">
         <v>45692</v>
@@ -5973,34 +4815,34 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
       </c>
-      <c r="E75" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E75" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H75" s="4">
         <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J75" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K75" s="1">
         <v>45692</v>
@@ -6008,10 +4850,10 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -6019,23 +4861,23 @@
       <c r="D76" t="s">
         <v>14</v>
       </c>
-      <c r="E76" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E76" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H76" s="4">
         <v>39</v>
       </c>
       <c r="I76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J76" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K76" s="1">
         <v>45692</v>
@@ -6043,34 +4885,34 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>57</v>
-      </c>
-      <c r="E77" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H77" s="4">
         <v>38</v>
       </c>
       <c r="I77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J77" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K77" s="1">
         <v>45692</v>
@@ -6078,10 +4920,10 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -6089,23 +4931,23 @@
       <c r="D78" t="s">
         <v>14</v>
       </c>
-      <c r="E78" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E78" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H78" s="4">
         <v>43</v>
       </c>
       <c r="I78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J78" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K78" s="1">
         <v>45692</v>
@@ -6113,10 +4955,10 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -6124,23 +4966,23 @@
       <c r="D79" t="s">
         <v>14</v>
       </c>
-      <c r="E79" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E79" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H79" s="4">
         <v>34</v>
       </c>
       <c r="I79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K79" s="1">
         <v>45692</v>
@@ -6148,10 +4990,10 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B80" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -6159,23 +5001,23 @@
       <c r="D80" t="s">
         <v>14</v>
       </c>
-      <c r="E80" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E80" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H80" s="4">
         <v>39</v>
       </c>
       <c r="I80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J80" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K80" s="1">
         <v>45692</v>
@@ -6183,10 +5025,10 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B81" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -6194,23 +5036,23 @@
       <c r="D81" t="s">
         <v>14</v>
       </c>
-      <c r="E81" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E81" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H81" s="4">
         <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J81" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K81" s="1">
         <v>45692</v>
@@ -6218,10 +5060,10 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -6229,23 +5071,23 @@
       <c r="D82" t="s">
         <v>14</v>
       </c>
-      <c r="E82" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E82" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H82" s="4">
         <v>35</v>
       </c>
       <c r="I82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J82" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K82" s="1">
         <v>45693</v>
@@ -6253,10 +5095,10 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -6264,23 +5106,23 @@
       <c r="D83" t="s">
         <v>14</v>
       </c>
-      <c r="E83" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E83" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H83" s="4">
         <v>37</v>
       </c>
       <c r="I83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K83" s="1">
         <v>45693</v>
@@ -6288,10 +5130,10 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
@@ -6299,23 +5141,23 @@
       <c r="D84" t="s">
         <v>14</v>
       </c>
-      <c r="E84" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E84" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H84" s="4">
         <v>35</v>
       </c>
       <c r="I84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J84" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K84" s="1">
         <v>45693</v>
@@ -6323,10 +5165,10 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -6334,23 +5176,23 @@
       <c r="D85" t="s">
         <v>14</v>
       </c>
-      <c r="E85" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E85" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H85" s="4">
         <v>26</v>
       </c>
       <c r="I85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K85" s="1">
         <v>45693</v>
@@ -6358,10 +5200,10 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -6369,23 +5211,23 @@
       <c r="D86" t="s">
         <v>14</v>
       </c>
-      <c r="E86" t="e" vm="4">
-        <v>#VALUE!</v>
+      <c r="E86" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G86" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H86" s="4">
         <v>35</v>
       </c>
       <c r="I86" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J86" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K86" s="1">
         <v>45693</v>
@@ -6393,34 +5235,34 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B87" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
       </c>
-      <c r="E87" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E87" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H87" s="4">
         <v>40</v>
       </c>
       <c r="I87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K87" s="1">
         <v>45693</v>
@@ -6428,10 +5270,10 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B88" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -6439,23 +5281,23 @@
       <c r="D88" t="s">
         <v>14</v>
       </c>
-      <c r="E88" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E88" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G88" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H88" s="4">
         <v>28</v>
       </c>
       <c r="I88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K88" s="1">
         <v>45693</v>
@@ -6463,10 +5305,10 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -6474,23 +5316,23 @@
       <c r="D89" t="s">
         <v>14</v>
       </c>
-      <c r="E89" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E89" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G89" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H89" s="4">
         <v>28</v>
       </c>
       <c r="I89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K89" s="1">
         <v>45693</v>
@@ -6498,10 +5340,10 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -6509,23 +5351,23 @@
       <c r="D90" t="s">
         <v>14</v>
       </c>
-      <c r="E90" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E90" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G90" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H90" s="4">
         <v>51</v>
       </c>
       <c r="I90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J90" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K90" s="1">
         <v>45693</v>
@@ -6533,10 +5375,10 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B91" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -6544,23 +5386,23 @@
       <c r="D91" t="s">
         <v>14</v>
       </c>
-      <c r="E91" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E91" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H91" s="4">
         <v>29</v>
       </c>
       <c r="I91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K91" s="1">
         <v>45693</v>
@@ -6568,10 +5410,10 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -6579,23 +5421,23 @@
       <c r="D92" t="s">
         <v>14</v>
       </c>
-      <c r="E92" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E92" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H92" s="4">
         <v>35</v>
       </c>
       <c r="I92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K92" s="1">
         <v>45693</v>
@@ -6603,10 +5445,10 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B93" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -6614,23 +5456,23 @@
       <c r="D93" t="s">
         <v>14</v>
       </c>
-      <c r="E93" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E93" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H93" s="4">
         <v>32</v>
       </c>
       <c r="I93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J93" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K93" s="1">
         <v>45693</v>
@@ -6638,10 +5480,10 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B94" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
@@ -6649,23 +5491,23 @@
       <c r="D94" t="s">
         <v>14</v>
       </c>
-      <c r="E94" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E94" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H94" s="4">
         <v>28</v>
       </c>
       <c r="I94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J94" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K94" s="1">
         <v>45693</v>
@@ -6673,10 +5515,10 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B95" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
@@ -6684,23 +5526,23 @@
       <c r="D95" t="s">
         <v>14</v>
       </c>
-      <c r="E95" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E95" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G95" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H95" s="4">
         <v>31</v>
       </c>
       <c r="I95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J95" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K95" s="1">
         <v>45693</v>
@@ -6708,10 +5550,10 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -6719,23 +5561,23 @@
       <c r="D96" t="s">
         <v>14</v>
       </c>
-      <c r="E96" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E96" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H96" s="4">
         <v>40</v>
       </c>
       <c r="I96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J96" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K96" s="1">
         <v>45693</v>
@@ -6743,10 +5585,10 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B97" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -6754,23 +5596,23 @@
       <c r="D97" t="s">
         <v>14</v>
       </c>
-      <c r="E97" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E97" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H97" s="4">
         <v>27</v>
       </c>
       <c r="I97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J97" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K97" s="1">
         <v>45693</v>
@@ -6778,10 +5620,10 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B98" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
@@ -6789,23 +5631,23 @@
       <c r="D98" t="s">
         <v>14</v>
       </c>
-      <c r="E98" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E98" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H98" s="4">
         <v>41</v>
       </c>
       <c r="I98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J98" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K98" s="1">
         <v>45693</v>
@@ -6813,10 +5655,10 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B99" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
@@ -6824,23 +5666,23 @@
       <c r="D99" t="s">
         <v>14</v>
       </c>
-      <c r="E99" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E99" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H99" s="4">
         <v>31</v>
       </c>
       <c r="I99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J99" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K99" s="1">
         <v>45693</v>
@@ -6848,34 +5690,34 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B100" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>57</v>
-      </c>
-      <c r="E100" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G100" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H100" s="4">
         <v>38</v>
       </c>
       <c r="I100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J100" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K100" s="1">
         <v>45693</v>
@@ -6883,10 +5725,10 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B101" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -6894,23 +5736,23 @@
       <c r="D101" t="s">
         <v>14</v>
       </c>
-      <c r="E101" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E101" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G101" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H101" s="4">
         <v>31</v>
       </c>
       <c r="I101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K101" s="1">
         <v>45693</v>
@@ -6918,10 +5760,10 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B102" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
@@ -6929,23 +5771,23 @@
       <c r="D102" t="s">
         <v>14</v>
       </c>
-      <c r="E102" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E102" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G102" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H102" s="4">
         <v>35</v>
       </c>
       <c r="I102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J102" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K102" s="1">
         <v>45694</v>
@@ -6953,10 +5795,10 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B103" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
@@ -6964,23 +5806,23 @@
       <c r="D103" t="s">
         <v>14</v>
       </c>
-      <c r="E103" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E103" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G103" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H103" s="4">
         <v>26</v>
       </c>
       <c r="I103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K103" s="1">
         <v>45694</v>
@@ -6988,10 +5830,10 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B104" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
@@ -6999,23 +5841,23 @@
       <c r="D104" t="s">
         <v>14</v>
       </c>
-      <c r="E104" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E104" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G104" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H104" s="4">
         <v>37</v>
       </c>
       <c r="I104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J104" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K104" s="1">
         <v>45694</v>
@@ -7023,10 +5865,10 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B105" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
@@ -7034,23 +5876,23 @@
       <c r="D105" t="s">
         <v>14</v>
       </c>
-      <c r="E105" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E105" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G105" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H105" s="4">
         <v>27</v>
       </c>
       <c r="I105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K105" s="1">
         <v>45694</v>
@@ -7058,34 +5900,34 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B106" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D106" t="s">
         <v>14</v>
       </c>
-      <c r="E106" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E106" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G106" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H106" s="4">
         <v>28</v>
       </c>
       <c r="I106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K106" s="1">
         <v>45694</v>
@@ -7093,10 +5935,10 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B107" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
@@ -7104,23 +5946,23 @@
       <c r="D107" t="s">
         <v>14</v>
       </c>
-      <c r="E107" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E107" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G107" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H107" s="4">
         <v>31</v>
       </c>
       <c r="I107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J107" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K107" s="1">
         <v>45694</v>
@@ -7128,10 +5970,10 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B108" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
@@ -7139,23 +5981,23 @@
       <c r="D108" t="s">
         <v>14</v>
       </c>
-      <c r="E108" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E108" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G108" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H108" s="4">
         <v>32</v>
       </c>
       <c r="I108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J108" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K108" s="1">
         <v>45694</v>
@@ -7163,10 +6005,10 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B109" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
@@ -7174,23 +6016,23 @@
       <c r="D109" t="s">
         <v>14</v>
       </c>
-      <c r="E109" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E109" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G109" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H109" s="4">
         <v>32</v>
       </c>
       <c r="I109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J109" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K109" s="1">
         <v>45694</v>
@@ -7198,34 +6040,34 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
       </c>
-      <c r="E110" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E110" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G110" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H110" s="4">
         <v>42</v>
       </c>
       <c r="I110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K110" s="1">
         <v>45694</v>
@@ -7233,10 +6075,10 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
@@ -7244,23 +6086,23 @@
       <c r="D111" t="s">
         <v>14</v>
       </c>
-      <c r="E111" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E111" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G111" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H111" s="4">
         <v>25</v>
       </c>
       <c r="I111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K111" s="1">
         <v>45694</v>
@@ -7268,10 +6110,10 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B112" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
@@ -7279,23 +6121,23 @@
       <c r="D112" t="s">
         <v>14</v>
       </c>
-      <c r="E112" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E112" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G112" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H112" s="4">
         <v>45</v>
       </c>
       <c r="I112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J112" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K112" s="1">
         <v>45694</v>
@@ -7303,34 +6145,34 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B113" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s">
         <v>14</v>
       </c>
-      <c r="E113" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E113" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G113" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H113" s="4">
         <v>31</v>
       </c>
       <c r="I113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J113" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K113" s="1">
         <v>45694</v>
@@ -7338,10 +6180,10 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B114" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
@@ -7349,23 +6191,23 @@
       <c r="D114" t="s">
         <v>14</v>
       </c>
-      <c r="E114" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E114" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G114" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H114" s="4">
         <v>42</v>
       </c>
       <c r="I114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J114" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K114" s="1">
         <v>45694</v>
@@ -7373,10 +6215,10 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B115" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C115" t="s">
         <v>13</v>
@@ -7384,23 +6226,23 @@
       <c r="D115" t="s">
         <v>14</v>
       </c>
-      <c r="E115" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E115" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G115" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H115" s="4">
         <v>27</v>
       </c>
       <c r="I115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J115" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K115" s="1">
         <v>45694</v>
@@ -7408,34 +6250,34 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B116" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C116" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D116" t="s">
         <v>14</v>
       </c>
-      <c r="E116" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E116" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G116" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H116" s="4">
         <v>32</v>
       </c>
       <c r="I116" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J116" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K116" s="1">
         <v>45694</v>
@@ -7443,34 +6285,34 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B117" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D117" t="s">
         <v>14</v>
       </c>
-      <c r="E117" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E117" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G117" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H117" s="4">
         <v>30</v>
       </c>
       <c r="I117" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J117" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K117" s="1">
         <v>45694</v>
@@ -7478,34 +6320,34 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B118" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C118" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D118" t="s">
         <v>14</v>
       </c>
-      <c r="E118" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E118" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G118" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H118" s="4">
         <v>43</v>
       </c>
       <c r="I118" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J118" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K118" s="1">
         <v>45694</v>
@@ -7513,34 +6355,34 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B119" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C119" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D119" t="s">
         <v>14</v>
       </c>
-      <c r="E119" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E119" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G119" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H119" s="4">
         <v>34</v>
       </c>
       <c r="I119" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J119" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K119" s="1">
         <v>45694</v>
@@ -7548,10 +6390,10 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B120" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
@@ -7559,23 +6401,23 @@
       <c r="D120" t="s">
         <v>14</v>
       </c>
-      <c r="E120" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E120" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G120" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H120" s="4">
         <v>35</v>
       </c>
       <c r="I120" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K120" s="1">
         <v>45694</v>
@@ -7583,34 +6425,34 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B121" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C121" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D121" t="s">
         <v>14</v>
       </c>
-      <c r="E121" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E121" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G121" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H121" s="4">
         <v>45</v>
       </c>
       <c r="I121" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J121" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K121" s="1">
         <v>45694</v>
@@ -7618,34 +6460,34 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B122" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C122" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D122" t="s">
         <v>14</v>
       </c>
-      <c r="E122" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E122" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G122" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H122" s="4">
         <v>30</v>
       </c>
       <c r="I122" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J122" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K122" s="1">
         <v>45695</v>
@@ -7653,34 +6495,34 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B123" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D123" t="s">
         <v>14</v>
       </c>
-      <c r="E123" t="e" vm="5">
-        <v>#VALUE!</v>
+      <c r="E123" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G123" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H123" s="4">
         <v>27</v>
       </c>
       <c r="I123" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J123" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K123" s="1">
         <v>45695</v>
@@ -7688,10 +6530,10 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B124" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
@@ -7699,23 +6541,23 @@
       <c r="D124" t="s">
         <v>14</v>
       </c>
-      <c r="E124" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E124" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G124" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H124" s="4">
         <v>26</v>
       </c>
       <c r="I124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K124" s="1">
         <v>45695</v>
@@ -7723,10 +6565,10 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B125" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
@@ -7734,23 +6576,23 @@
       <c r="D125" t="s">
         <v>14</v>
       </c>
-      <c r="E125" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E125" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G125" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H125" s="4">
         <v>35</v>
       </c>
       <c r="I125" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J125" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K125" s="1">
         <v>45695</v>
@@ -7758,10 +6600,10 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B126" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
@@ -7769,23 +6611,23 @@
       <c r="D126" t="s">
         <v>14</v>
       </c>
-      <c r="E126" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E126" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G126" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H126" s="4">
         <v>27</v>
       </c>
       <c r="I126" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J126" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K126" s="1">
         <v>45695</v>
@@ -7793,10 +6635,10 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B127" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C127" t="s">
         <v>13</v>
@@ -7804,23 +6646,23 @@
       <c r="D127" t="s">
         <v>14</v>
       </c>
-      <c r="E127" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E127" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F127" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G127" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H127" s="4">
         <v>33</v>
       </c>
       <c r="I127" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J127" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K127" s="1">
         <v>45695</v>
@@ -7828,34 +6670,34 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B128" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C128" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D128" t="s">
         <v>14</v>
       </c>
-      <c r="E128" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E128" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G128" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H128" s="4">
         <v>25</v>
       </c>
       <c r="I128" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J128" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K128" s="1">
         <v>45695</v>
@@ -7863,10 +6705,10 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B129" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C129" t="s">
         <v>13</v>
@@ -7874,23 +6716,23 @@
       <c r="D129" t="s">
         <v>14</v>
       </c>
-      <c r="E129" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E129" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G129" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H129" s="4">
         <v>34</v>
       </c>
       <c r="I129" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J129" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K129" s="1">
         <v>45695</v>
@@ -7898,34 +6740,34 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B130" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C130" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D130" t="s">
         <v>14</v>
       </c>
-      <c r="E130" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E130" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G130" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H130" s="4">
         <v>28</v>
       </c>
       <c r="I130" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J130" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K130" s="1">
         <v>45695</v>
@@ -7933,34 +6775,34 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B131" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C131" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D131" t="s">
         <v>14</v>
       </c>
-      <c r="E131" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E131" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F131" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G131" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H131" s="4">
         <v>31</v>
       </c>
       <c r="I131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J131" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K131" s="1">
         <v>45695</v>
@@ -7968,10 +6810,10 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B132" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C132" t="s">
         <v>13</v>
@@ -7979,23 +6821,23 @@
       <c r="D132" t="s">
         <v>14</v>
       </c>
-      <c r="E132" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E132" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G132" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H132" s="4">
         <v>34</v>
       </c>
       <c r="I132" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J132" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K132" s="1">
         <v>45695</v>
@@ -8003,34 +6845,34 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B133" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C133" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D133" t="s">
         <v>14</v>
       </c>
-      <c r="E133" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E133" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G133" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H133" s="4">
         <v>32</v>
       </c>
       <c r="I133" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J133" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K133" s="1">
         <v>45695</v>
@@ -8038,10 +6880,10 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B134" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C134" t="s">
         <v>13</v>
@@ -8049,23 +6891,23 @@
       <c r="D134" t="s">
         <v>14</v>
       </c>
-      <c r="E134" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E134" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F134" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G134" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H134" s="4">
         <v>33</v>
       </c>
       <c r="I134" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J134" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K134" s="1">
         <v>45695</v>
@@ -8073,34 +6915,34 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B135" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C135" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D135" t="s">
         <v>14</v>
       </c>
-      <c r="E135" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E135" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G135" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H135" s="4">
         <v>33</v>
       </c>
       <c r="I135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J135" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K135" s="1">
         <v>45695</v>
@@ -8108,34 +6950,34 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B136" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C136" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D136" t="s">
         <v>14</v>
       </c>
-      <c r="E136" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E136" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F136" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G136" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H136" s="4">
         <v>30</v>
       </c>
       <c r="I136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J136" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K136" s="1">
         <v>45695</v>
@@ -8143,34 +6985,34 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B137" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C137" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D137" t="s">
         <v>14</v>
       </c>
-      <c r="E137" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E137" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F137" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G137" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H137" s="4">
         <v>33</v>
       </c>
       <c r="I137" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J137" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K137" s="1">
         <v>45695</v>
@@ -8178,10 +7020,10 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B138" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
@@ -8189,23 +7031,23 @@
       <c r="D138" t="s">
         <v>14</v>
       </c>
-      <c r="E138" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E138" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G138" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H138" s="4">
         <v>33</v>
       </c>
       <c r="I138" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J138" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K138" s="1">
         <v>45695</v>
@@ -8213,10 +7055,10 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B139" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C139" t="s">
         <v>13</v>
@@ -8224,23 +7066,23 @@
       <c r="D139" t="s">
         <v>14</v>
       </c>
-      <c r="E139" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E139" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F139" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G139" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H139" s="4">
         <v>32</v>
       </c>
       <c r="I139" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J139" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K139" s="1">
         <v>45695</v>
@@ -8248,34 +7090,34 @@
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B140" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C140" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D140" t="s">
         <v>14</v>
       </c>
-      <c r="E140" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E140" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G140" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H140" s="4">
         <v>29</v>
       </c>
       <c r="I140" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J140" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K140" s="1">
         <v>45695</v>
@@ -8283,10 +7125,10 @@
     </row>
     <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B141" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C141" t="s">
         <v>13</v>
@@ -8294,23 +7136,23 @@
       <c r="D141" t="s">
         <v>14</v>
       </c>
-      <c r="E141" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E141" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G141" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H141" s="4">
         <v>39</v>
       </c>
       <c r="I141" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J141" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K141" s="1">
         <v>45695</v>
@@ -8318,10 +7160,10 @@
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B142" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
@@ -8329,23 +7171,23 @@
       <c r="D142" t="s">
         <v>14</v>
       </c>
-      <c r="E142" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E142" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G142" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H142" s="4">
         <v>24</v>
       </c>
       <c r="I142" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J142" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K142" s="1">
         <v>45696</v>
@@ -8353,34 +7195,34 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B143" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C143" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D143" t="s">
         <v>14</v>
       </c>
-      <c r="E143" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E143" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G143" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H143" s="4">
         <v>24</v>
       </c>
       <c r="I143" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J143" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K143" s="1">
         <v>45696</v>
@@ -8388,10 +7230,10 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B144" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C144" t="s">
         <v>13</v>
@@ -8399,23 +7241,23 @@
       <c r="D144" t="s">
         <v>14</v>
       </c>
-      <c r="E144" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E144" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G144" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H144" s="4">
         <v>33</v>
       </c>
       <c r="I144" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J144" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K144" s="1">
         <v>45696</v>
@@ -8423,34 +7265,34 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B145" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C145" t="s">
         <v>13</v>
       </c>
       <c r="D145" t="s">
-        <v>57</v>
-      </c>
-      <c r="E145" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G145" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H145" s="4">
         <v>27</v>
       </c>
       <c r="I145" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K145" s="1">
         <v>45696</v>
@@ -8458,34 +7300,34 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B146" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C146" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D146" t="s">
         <v>14</v>
       </c>
-      <c r="E146" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E146" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G146" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H146" s="4">
         <v>32</v>
       </c>
       <c r="I146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J146" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K146" s="1">
         <v>45696</v>
@@ -8493,10 +7335,10 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B147" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
@@ -8504,23 +7346,23 @@
       <c r="D147" t="s">
         <v>14</v>
       </c>
-      <c r="E147" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E147" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G147" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H147" s="4">
         <v>44</v>
       </c>
       <c r="I147" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J147" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K147" s="1">
         <v>45696</v>
@@ -8528,10 +7370,10 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B148" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C148" t="s">
         <v>13</v>
@@ -8539,23 +7381,23 @@
       <c r="D148" t="s">
         <v>14</v>
       </c>
-      <c r="E148" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E148" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G148" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H148" s="4">
         <v>31</v>
       </c>
       <c r="I148" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J148" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K148" s="1">
         <v>45696</v>
@@ -8563,10 +7405,10 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B149" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C149" t="s">
         <v>13</v>
@@ -8574,23 +7416,23 @@
       <c r="D149" t="s">
         <v>14</v>
       </c>
-      <c r="E149" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E149" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F149" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G149" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H149" s="4">
         <v>33</v>
       </c>
       <c r="I149" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J149" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K149" s="1">
         <v>45696</v>
@@ -8598,10 +7440,10 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B150" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C150" t="s">
         <v>13</v>
@@ -8609,23 +7451,23 @@
       <c r="D150" t="s">
         <v>14</v>
       </c>
-      <c r="E150" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E150" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G150" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H150" s="4">
         <v>36</v>
       </c>
       <c r="I150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J150" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K150" s="1">
         <v>45696</v>
@@ -8633,10 +7475,10 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B151" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C151" t="s">
         <v>13</v>
@@ -8644,23 +7486,23 @@
       <c r="D151" t="s">
         <v>14</v>
       </c>
-      <c r="E151" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E151" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F151" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G151" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H151" s="4">
         <v>42</v>
       </c>
       <c r="I151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J151" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K151" s="1">
         <v>45696</v>
@@ -8668,10 +7510,10 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B152" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C152" t="s">
         <v>13</v>
@@ -8679,23 +7521,23 @@
       <c r="D152" t="s">
         <v>14</v>
       </c>
-      <c r="E152" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E152" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F152" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G152" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H152" s="4">
         <v>36</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J152" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K152" s="1">
         <v>45697</v>
@@ -8703,10 +7545,10 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B153" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C153" t="s">
         <v>13</v>
@@ -8714,23 +7556,23 @@
       <c r="D153" t="s">
         <v>14</v>
       </c>
-      <c r="E153" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E153" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F153" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G153" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H153" s="4">
         <v>26</v>
       </c>
       <c r="I153" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J153" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K153" s="1">
         <v>45697</v>
@@ -8738,10 +7580,10 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B154" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C154" t="s">
         <v>13</v>
@@ -8749,23 +7591,23 @@
       <c r="D154" t="s">
         <v>14</v>
       </c>
-      <c r="E154" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E154" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F154" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G154" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H154" s="4">
         <v>29</v>
       </c>
       <c r="I154" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J154" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K154" s="1">
         <v>45697</v>
@@ -8773,10 +7615,10 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B155" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C155" t="s">
         <v>13</v>
@@ -8784,23 +7626,23 @@
       <c r="D155" t="s">
         <v>14</v>
       </c>
-      <c r="E155" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E155" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F155" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G155" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H155" s="4">
         <v>31</v>
       </c>
       <c r="I155" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J155" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K155" s="1">
         <v>45697</v>
@@ -8808,10 +7650,10 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B156" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C156" t="s">
         <v>13</v>
@@ -8819,23 +7661,23 @@
       <c r="D156" t="s">
         <v>14</v>
       </c>
-      <c r="E156" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E156" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G156" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H156" s="4">
         <v>24</v>
       </c>
       <c r="I156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J156" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K156" s="1">
         <v>45697</v>
@@ -8843,10 +7685,10 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B157" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C157" t="s">
         <v>13</v>
@@ -8854,23 +7696,23 @@
       <c r="D157" t="s">
         <v>14</v>
       </c>
-      <c r="E157" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E157" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F157" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G157" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H157" s="4">
         <v>30</v>
       </c>
       <c r="I157" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J157" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K157" s="1">
         <v>45697</v>
@@ -8878,10 +7720,10 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B158" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C158" t="s">
         <v>13</v>
@@ -8889,23 +7731,23 @@
       <c r="D158" t="s">
         <v>14</v>
       </c>
-      <c r="E158" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E158" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F158" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G158" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H158" s="4">
         <v>27</v>
       </c>
       <c r="I158" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J158" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K158" s="1">
         <v>45697</v>
@@ -8913,10 +7755,10 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B159" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C159" t="s">
         <v>13</v>
@@ -8924,23 +7766,23 @@
       <c r="D159" t="s">
         <v>14</v>
       </c>
-      <c r="E159" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E159" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F159" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G159" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H159" s="4">
         <v>35</v>
       </c>
       <c r="I159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J159" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K159" s="1">
         <v>45697</v>
@@ -8948,10 +7790,10 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B160" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C160" t="s">
         <v>13</v>
@@ -8959,23 +7801,23 @@
       <c r="D160" t="s">
         <v>14</v>
       </c>
-      <c r="E160" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E160" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G160" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H160" s="4">
         <v>30</v>
       </c>
       <c r="I160" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J160" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K160" s="1">
         <v>45697</v>
@@ -8983,10 +7825,10 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B161" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
@@ -8994,23 +7836,23 @@
       <c r="D161" t="s">
         <v>14</v>
       </c>
-      <c r="E161" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E161" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F161" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G161" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H161" s="4">
         <v>30</v>
       </c>
       <c r="I161" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J161" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K161" s="1">
         <v>45697</v>
@@ -9018,34 +7860,34 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B162" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C162" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D162" t="s">
         <v>14</v>
       </c>
-      <c r="E162" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E162" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G162" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H162" s="4">
         <v>29</v>
       </c>
       <c r="I162" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J162" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K162" s="1">
         <v>45701</v>
@@ -9053,34 +7895,34 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B163" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C163" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D163" t="s">
         <v>14</v>
       </c>
-      <c r="E163" t="e" vm="5">
-        <v>#VALUE!</v>
+      <c r="E163" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="F163" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G163" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H163" s="4">
         <v>29</v>
       </c>
       <c r="I163" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J163" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K163" s="1">
         <v>45701</v>
@@ -9088,34 +7930,34 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B164" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C164" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D164" t="s">
         <v>14</v>
       </c>
-      <c r="E164" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E164" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G164" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H164" s="4">
         <v>25</v>
       </c>
       <c r="I164" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J164" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K164" s="1">
         <v>45701</v>
@@ -9123,10 +7965,10 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B165" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C165" t="s">
         <v>13</v>
@@ -9134,23 +7976,23 @@
       <c r="D165" t="s">
         <v>14</v>
       </c>
-      <c r="E165" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E165" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F165" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G165" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H165" s="4">
         <v>33</v>
       </c>
       <c r="I165" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J165" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K165" s="1">
         <v>45701</v>
@@ -9158,34 +8000,34 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B166" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C166" t="s">
         <v>13</v>
       </c>
       <c r="D166" t="s">
-        <v>57</v>
-      </c>
-      <c r="E166" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F166" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G166" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H166" s="4">
         <v>33</v>
       </c>
       <c r="I166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J166" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K166" s="1">
         <v>45701</v>
@@ -9193,10 +8035,10 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B167" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C167" t="s">
         <v>13</v>
@@ -9204,23 +8046,23 @@
       <c r="D167" t="s">
         <v>14</v>
       </c>
-      <c r="E167" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E167" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F167" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G167" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H167" s="4">
         <v>27</v>
       </c>
       <c r="I167" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J167" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K167" s="1">
         <v>45701</v>
@@ -9228,10 +8070,10 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B168" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C168" t="s">
         <v>13</v>
@@ -9239,23 +8081,23 @@
       <c r="D168" t="s">
         <v>14</v>
       </c>
-      <c r="E168" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E168" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G168" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H168" s="4">
         <v>36</v>
       </c>
       <c r="I168" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J168" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K168" s="1">
         <v>45701</v>
@@ -9263,34 +8105,34 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B169" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D169" t="s">
         <v>14</v>
       </c>
-      <c r="E169" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E169" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F169" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G169" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H169" s="4">
         <v>33</v>
       </c>
       <c r="I169" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J169" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K169" s="1">
         <v>45701</v>
@@ -9298,34 +8140,34 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B170" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D170" t="s">
         <v>14</v>
       </c>
-      <c r="E170" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E170" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F170" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G170" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H170" s="4">
         <v>30</v>
       </c>
       <c r="I170" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J170" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K170" s="1">
         <v>45701</v>
@@ -9333,34 +8175,34 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B171" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C171" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D171" t="s">
         <v>14</v>
       </c>
-      <c r="E171" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E171" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F171" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G171" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H171" s="4">
         <v>37</v>
       </c>
       <c r="I171" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J171" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K171" s="1">
         <v>45701</v>
@@ -9368,34 +8210,34 @@
     </row>
     <row r="172" spans="1:11">
       <c r="A172" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B172" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C172" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
       </c>
-      <c r="E172" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E172" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F172" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G172" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H172" s="4">
         <v>34</v>
       </c>
       <c r="I172" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J172" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K172" s="1">
         <v>45701</v>
@@ -9403,10 +8245,10 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B173" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C173" t="s">
         <v>13</v>
@@ -9414,23 +8256,23 @@
       <c r="D173" t="s">
         <v>14</v>
       </c>
-      <c r="E173" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E173" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F173" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G173" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H173" s="4">
         <v>37</v>
       </c>
       <c r="I173" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J173" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K173" s="1">
         <v>45701</v>
@@ -9438,10 +8280,10 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B174" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C174" t="s">
         <v>13</v>
@@ -9449,23 +8291,23 @@
       <c r="D174" t="s">
         <v>14</v>
       </c>
-      <c r="E174" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E174" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F174" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G174" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H174" s="4">
         <v>32</v>
       </c>
       <c r="I174" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J174" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K174" s="1">
         <v>45701</v>
@@ -9473,34 +8315,34 @@
     </row>
     <row r="175" spans="1:11">
       <c r="A175" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B175" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C175" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D175" t="s">
         <v>14</v>
       </c>
-      <c r="E175" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E175" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F175" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G175" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H175" s="4">
         <v>30</v>
       </c>
       <c r="I175" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J175" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K175" s="1">
         <v>45701</v>
@@ -9508,34 +8350,34 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B176" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C176" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D176" t="s">
         <v>14</v>
       </c>
-      <c r="E176" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E176" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F176" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G176" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H176" s="4">
         <v>34</v>
       </c>
       <c r="I176" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J176" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K176" s="1">
         <v>45701</v>
@@ -9543,34 +8385,34 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B177" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C177" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D177" t="s">
         <v>14</v>
       </c>
-      <c r="E177" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E177" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F177" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G177" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H177" s="4">
         <v>41</v>
       </c>
       <c r="I177" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J177" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K177" s="1">
         <v>45701</v>
@@ -9578,34 +8420,34 @@
     </row>
     <row r="178" spans="1:11">
       <c r="A178" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B178" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C178" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D178" t="s">
         <v>14</v>
       </c>
-      <c r="E178" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E178" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F178" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G178" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H178" s="4">
         <v>36</v>
       </c>
       <c r="I178" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J178" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K178" s="1">
         <v>45701</v>
@@ -9613,34 +8455,34 @@
     </row>
     <row r="179" spans="1:11">
       <c r="A179" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B179" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C179" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D179" t="s">
         <v>14</v>
       </c>
-      <c r="E179" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E179" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F179" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G179" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H179" s="4">
         <v>22</v>
       </c>
       <c r="I179" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J179" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K179" s="1">
         <v>45701</v>
@@ -9648,10 +8490,10 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B180" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C180" t="s">
         <v>13</v>
@@ -9659,23 +8501,23 @@
       <c r="D180" t="s">
         <v>14</v>
       </c>
-      <c r="E180" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E180" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F180" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G180" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H180" s="4">
         <v>26</v>
       </c>
       <c r="I180" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J180" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K180" s="1">
         <v>45701</v>
@@ -9683,34 +8525,34 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B181" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C181" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D181" t="s">
         <v>14</v>
       </c>
-      <c r="E181" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E181" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F181" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G181" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H181" s="4">
         <v>28</v>
       </c>
       <c r="I181" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J181" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K181" s="1">
         <v>45701</v>
@@ -9718,34 +8560,34 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B182" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C182" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D182" t="s">
         <v>14</v>
       </c>
-      <c r="E182" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E182" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F182" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G182" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H182" s="4">
         <v>31</v>
       </c>
       <c r="I182" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J182" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K182" s="1">
         <v>45701</v>
@@ -9753,34 +8595,34 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B183" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C183" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D183" t="s">
         <v>14</v>
       </c>
-      <c r="E183" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E183" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F183" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G183" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H183" s="4">
         <v>31</v>
       </c>
       <c r="I183" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J183" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K183" s="1">
         <v>45701</v>
@@ -9788,34 +8630,34 @@
     </row>
     <row r="184" spans="1:11">
       <c r="A184" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B184" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C184" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D184" t="s">
         <v>14</v>
       </c>
-      <c r="E184" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E184" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F184" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G184" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H184" s="4">
         <v>55</v>
       </c>
       <c r="I184" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J184" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K184" s="1">
         <v>45701</v>
@@ -9823,10 +8665,10 @@
     </row>
     <row r="185" spans="1:11">
       <c r="A185" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B185" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C185" t="s">
         <v>13</v>
@@ -9834,23 +8676,23 @@
       <c r="D185" t="s">
         <v>14</v>
       </c>
-      <c r="E185" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E185" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F185" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G185" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H185" s="4">
         <v>40</v>
       </c>
       <c r="I185" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J185" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K185" s="1">
         <v>45701</v>
@@ -9858,34 +8700,34 @@
     </row>
     <row r="186" spans="1:11">
       <c r="A186" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B186" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C186" t="s">
         <v>13</v>
       </c>
       <c r="D186" t="s">
-        <v>57</v>
-      </c>
-      <c r="E186" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>59</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F186" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G186" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H186" s="4">
         <v>28</v>
       </c>
       <c r="I186" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J186" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K186" s="1">
         <v>45701</v>
@@ -9893,10 +8735,10 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B187" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C187" t="s">
         <v>13</v>
@@ -9904,23 +8746,23 @@
       <c r="D187" t="s">
         <v>14</v>
       </c>
-      <c r="E187" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E187" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F187" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G187" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H187" s="4">
         <v>43</v>
       </c>
       <c r="I187" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J187" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K187" s="1">
         <v>45701</v>
@@ -9928,10 +8770,10 @@
     </row>
     <row r="188" spans="1:11">
       <c r="A188" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B188" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C188" t="s">
         <v>13</v>
@@ -9939,23 +8781,23 @@
       <c r="D188" t="s">
         <v>14</v>
       </c>
-      <c r="E188" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E188" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F188" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G188" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H188" s="4">
         <v>41</v>
       </c>
       <c r="I188" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J188" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K188" s="1">
         <v>45701</v>
@@ -9963,34 +8805,34 @@
     </row>
     <row r="189" spans="1:11">
       <c r="A189" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B189" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C189" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D189" t="s">
         <v>14</v>
       </c>
-      <c r="E189" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E189" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F189" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G189" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H189" s="4">
         <v>30</v>
       </c>
       <c r="I189" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J189" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K189" s="1">
         <v>45701</v>
@@ -9998,10 +8840,10 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B190" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C190" t="s">
         <v>13</v>
@@ -10009,23 +8851,23 @@
       <c r="D190" t="s">
         <v>14</v>
       </c>
-      <c r="E190" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E190" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F190" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G190" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H190" s="4">
         <v>38</v>
       </c>
       <c r="I190" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J190" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K190" s="1">
         <v>45701</v>
@@ -10033,10 +8875,10 @@
     </row>
     <row r="191" spans="1:11">
       <c r="A191" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B191" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C191" t="s">
         <v>13</v>
@@ -10044,23 +8886,23 @@
       <c r="D191" t="s">
         <v>14</v>
       </c>
-      <c r="E191" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E191" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F191" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G191" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H191" s="4">
         <v>43</v>
       </c>
       <c r="I191" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J191" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K191" s="1">
         <v>45701</v>
@@ -10068,10 +8910,10 @@
     </row>
     <row r="192" spans="1:11">
       <c r="A192" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B192" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C192" t="s">
         <v>13</v>
@@ -10079,23 +8921,23 @@
       <c r="D192" t="s">
         <v>14</v>
       </c>
-      <c r="E192" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E192" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F192" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G192" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H192" s="4">
         <v>30</v>
       </c>
       <c r="I192" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J192" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K192" s="1">
         <v>45706</v>
@@ -10103,10 +8945,10 @@
     </row>
     <row r="193" spans="1:11">
       <c r="A193" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B193" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C193" t="s">
         <v>13</v>
@@ -10114,23 +8956,23 @@
       <c r="D193" t="s">
         <v>14</v>
       </c>
-      <c r="E193" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E193" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F193" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G193" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H193" s="4">
         <v>31</v>
       </c>
       <c r="I193" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J193" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K193" s="1">
         <v>45706</v>
@@ -10138,10 +8980,10 @@
     </row>
     <row r="194" spans="1:11">
       <c r="A194" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B194" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C194" t="s">
         <v>13</v>
@@ -10149,23 +8991,23 @@
       <c r="D194" t="s">
         <v>14</v>
       </c>
-      <c r="E194" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E194" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F194" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G194" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H194" s="4">
         <v>29</v>
       </c>
       <c r="I194" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J194" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K194" s="1">
         <v>45706</v>
@@ -10173,34 +9015,34 @@
     </row>
     <row r="195" spans="1:11">
       <c r="A195" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B195" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C195" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D195" t="s">
         <v>14</v>
       </c>
-      <c r="E195" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E195" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F195" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G195" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H195" s="4">
         <v>40</v>
       </c>
       <c r="I195" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J195" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K195" s="1">
         <v>45706</v>
@@ -10208,34 +9050,34 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B196" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C196" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D196" t="s">
         <v>14</v>
       </c>
-      <c r="E196" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E196" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F196" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G196" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H196" s="4">
         <v>42</v>
       </c>
       <c r="I196" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J196" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K196" s="1">
         <v>45706</v>
@@ -10243,10 +9085,10 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B197" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C197" t="s">
         <v>13</v>
@@ -10254,23 +9096,23 @@
       <c r="D197" t="s">
         <v>14</v>
       </c>
-      <c r="E197" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E197" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F197" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G197" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H197" s="4">
         <v>31</v>
       </c>
       <c r="I197" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J197" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K197" s="1">
         <v>45706</v>
@@ -10278,10 +9120,10 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B198" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C198" t="s">
         <v>13</v>
@@ -10289,23 +9131,23 @@
       <c r="D198" t="s">
         <v>14</v>
       </c>
-      <c r="E198" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E198" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F198" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G198" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H198" s="4">
         <v>25</v>
       </c>
       <c r="I198" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J198" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K198" s="1">
         <v>45706</v>
@@ -10313,10 +9155,10 @@
     </row>
     <row r="199" spans="1:11">
       <c r="A199" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B199" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C199" t="s">
         <v>13</v>
@@ -10324,23 +9166,23 @@
       <c r="D199" t="s">
         <v>14</v>
       </c>
-      <c r="E199" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E199" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F199" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G199" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H199" s="4">
         <v>34</v>
       </c>
       <c r="I199" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J199" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K199" s="1">
         <v>45706</v>
@@ -10348,10 +9190,10 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B200" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C200" t="s">
         <v>13</v>
@@ -10359,23 +9201,23 @@
       <c r="D200" t="s">
         <v>14</v>
       </c>
-      <c r="E200" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E200" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F200" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G200" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H200" s="4">
         <v>24</v>
       </c>
       <c r="I200" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J200" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K200" s="1">
         <v>45706</v>
@@ -10383,10 +9225,10 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B201" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C201" t="s">
         <v>13</v>
@@ -10394,23 +9236,23 @@
       <c r="D201" t="s">
         <v>14</v>
       </c>
-      <c r="E201" t="e" vm="1">
-        <v>#VALUE!</v>
+      <c r="E201" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F201" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G201" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H201" s="4">
         <v>32</v>
       </c>
       <c r="I201" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J201" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K201" s="1">
         <v>45706</v>
